--- a/src/test/java/machinelearning/spark/conditionalEntropyCalculation_testSet1.xlsx
+++ b/src/test/java/machinelearning/spark/conditionalEntropyCalculation_testSet1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahraiman/University/FriendSensor/SPARK/Aug10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahraiman/University/FriendSensor/SPARK/SocialSensorProject_Aug19_2/socialsensor/src/test/java/machinelearning/spark/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
   <si>
     <t>P(T contain {h1, h5, h9} &amp; from_ui)</t>
   </si>
@@ -78,16 +79,89 @@
   </si>
   <si>
     <t>CE(contain {h1, h5, h9 }| from_ui)</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h6</t>
+  </si>
+  <si>
+    <t>h7</t>
+  </si>
+  <si>
+    <t>h8</t>
+  </si>
+  <si>
+    <t>h9</t>
+  </si>
+  <si>
+    <t>h10</t>
+  </si>
+  <si>
+    <t>h11</t>
+  </si>
+  <si>
+    <t>h12</t>
+  </si>
+  <si>
+    <t>contain &amp; from_hashtag</t>
+  </si>
+  <si>
+    <t>not_contain &amp; not_from_hashtag</t>
+  </si>
+  <si>
+    <t>P*log(P/(Prob_from_h))</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>contain &amp; ~from_hashtag</t>
+  </si>
+  <si>
+    <t>~contain &amp; from_hashtag</t>
+  </si>
+  <si>
+    <t>MI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,13 +184,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,19 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +493,23 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -427,15 +521,49 @@
         <v>0.06</v>
       </c>
       <c r="E2">
-        <f>C2 * LN(C2/0.1)</f>
+        <f>L2 * LN(L2/0.1)</f>
         <v>-3.0649537425959442E-2</v>
       </c>
+      <c r="F2">
+        <f>C2 * LN(C2/(0.26*0.1))</f>
+        <v>5.0174881452037107E-2</v>
+      </c>
       <c r="G2">
-        <f>E2+E14+E26+E38</f>
-        <v>1.4334653737497827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <f>-(E2+E14+E26+E38)</f>
+        <v>0.54403674585281481</v>
+      </c>
+      <c r="H2">
+        <f>F2+F14+F26+F38</f>
+        <v>2.902017127860558E-2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>K2/100</f>
+        <v>0.06</v>
+      </c>
+      <c r="M2">
+        <f>6/100</f>
+        <v>0.06</v>
+      </c>
+      <c r="N2">
+        <f>L2 * LN(L2/M2)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>-(N2+N16+N30+N44)</f>
+        <v>0.48654247165191977</v>
+      </c>
+      <c r="R2">
+        <f>L2 * LN(L2 /(M2*0.26))</f>
+        <v>8.0824418877996559E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -449,12 +577,42 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="1">E3+E15+E27+E39</f>
-        <v>1.4364636895411342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G3:G11" si="1">-(E3+E15+E27+E39)</f>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="2">F3+F15+F27+F39</f>
+        <v>3.2018487069957191E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L55" si="3">K3/100</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.09</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P13" si="4">-(N3+N17+N31+N45)</f>
+        <v>0.54442532561258405</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -466,15 +624,46 @@
         <v>0.01</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E47" si="2">C4 * LN(C4/0.1)</f>
+        <f t="shared" ref="E4:E35" si="5">C4 * LN(C4/0.1)</f>
         <v>-2.3025850929940458E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F10" si="6">C4 * LN(C4/(0.26*0.1))</f>
+        <v>-9.5551144502743646E-3</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.4132358006154284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.56426631898716906</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>8.7905981442513298E-3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -486,15 +675,46 @@
         <v>0.03</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="6"/>
+        <v>4.293025309220197E-3</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1.4048947107555214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.57260740884707617</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -506,15 +726,48 @@
         <v>0.06</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.0649537425959442E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="6"/>
+        <v>5.0174881452037107E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>1.4334653737497827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.54403674585281481</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>2.902017127860558E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="7">L6*LN(L6/M6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>0.42120633876778801</v>
+      </c>
+      <c r="R6">
+        <f>L6 * LN(L6 /(M6*0.26))</f>
+        <v>0.13470736479666093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -528,12 +781,42 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>1.4364636895411342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -545,15 +828,46 @@
         <v>0.01</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.3025850929940458E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>-9.5551144502743646E-3</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>1.4132358006154284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.56426631898716906</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>8.7905981442513298E-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -565,15 +879,46 @@
         <v>0.03</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="6"/>
+        <v>4.293025309220197E-3</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>1.4048947107555214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.57260740884707617</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -585,15 +930,48 @@
         <v>0.06</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.0649537425959442E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>5.0174881452037107E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>1.4334653737497827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.54403674585281481</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2.902017127860558E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M10">
+        <v>0.1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>0.42120633876778801</v>
+      </c>
+      <c r="R10">
+        <f>L10 * LN(L10 /(M10*0.26))</f>
+        <v>0.13470736479666093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -607,12 +985,42 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>1.4364636895411342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -620,8 +1028,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.04</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>0.56072249448898615</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -629,8 +1060,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.01</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>0.57002815970933329</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -642,11 +1096,15 @@
         <v>0.2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0.13862943611198905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <f>C14 * LN(C14/0.9)</f>
+        <v>-0.30081547935525482</v>
+      </c>
+      <c r="F14">
+        <f>C14* LN(C14/(0.26*0.9))</f>
+        <v>-3.140074976193296E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -658,11 +1116,18 @@
         <v>0.26</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>0.24843297570713346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E15:E23" si="8">C15 * LN(C15/0.9)</f>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F23" si="9">C15* LN(C15/(0.26*0.9))</f>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -674,11 +1139,29 @@
         <v>0.25</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
-        <v>0.22907268296853878</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>-0.32023346136551606</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
+        <v>1.6534950626136247E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="N16">
+        <f>L16*LN(L16/M30)</f>
+        <v>-0.30951250174320255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -690,11 +1173,29 @@
         <v>0.23</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.1915690982750739</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="9"/>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>26</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N27" si="10">L17*LN(L17/M31)</f>
+        <v>-0.3257183718087957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -706,11 +1207,29 @@
         <v>0.2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
-        <v>0.13862943611198905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>-0.30081547935525482</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="9"/>
+        <v>-3.140074976193296E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>26</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="10"/>
+        <v>-0.32284541440028358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -722,11 +1241,29 @@
         <v>0.26</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
-        <v>0.24843297570713346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="9"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <v>26</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="10"/>
+        <v>-0.32284541440028358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -738,11 +1275,29 @@
         <v>0.25</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>0.22907268296853878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>-0.32023346136551606</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="9"/>
+        <v>1.6534950626136247E-2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="10"/>
+        <v>-0.27635535169447745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -754,11 +1309,29 @@
         <v>0.23</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
-        <v>0.1915690982750739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>26</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="10"/>
+        <v>-0.32284541440028358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -770,11 +1343,29 @@
         <v>0.2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
-        <v>0.13862943611198905</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>-0.30081547935525482</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="9"/>
+        <v>-3.140074976193296E-2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22">
+        <v>26</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="10"/>
+        <v>-0.32284541440028358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -786,17 +1377,49 @@
         <v>0.26</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
-        <v>0.24843297570713346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="9"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <v>26</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="10"/>
+        <v>-0.32284541440028358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24">
+        <v>16</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="10"/>
+        <v>-0.27635535169447745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -804,8 +1427,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25">
+        <v>26</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="10"/>
+        <v>-0.32284541440028358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -817,11 +1454,29 @@
         <v>0.04</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.6651629274966208E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f>C26 * LN(C26/(0.74*0.1))</f>
+        <v>-2.4607425563609335E-2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26">
+        <v>26</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>-0.33962542989605204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -833,11 +1488,29 @@
         <v>0.1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F35" si="11">C27 * LN(C27/(0.74*0.1))</f>
+        <v>3.0110509278392178E-2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>-0.34762606114940808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -849,11 +1522,15 @@
         <v>0.09</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-9.4824464092043755E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="11"/>
+        <v>1.7617011941348581E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -865,11 +1542,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.4967246075711262E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="11"/>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -881,11 +1565,32 @@
         <v>0.04</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.6651629274966208E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="11"/>
+        <v>-2.4607425563609335E-2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>1-M2</f>
+        <v>0.94</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -897,11 +1602,33 @@
         <v>0.1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="11"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M41" si="12">1-M3</f>
+        <v>0.91</v>
+      </c>
+      <c r="N31">
+        <f>L31*LN(L31/M3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -913,11 +1640,33 @@
         <v>0.09</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-9.4824464092043755E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>1.7617011941348581E-2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:N41" si="13">L32*LN(L32/M4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -929,11 +1678,33 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.4967246075711262E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="11"/>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -945,11 +1716,32 @@
         <v>0.04</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.6651629274966208E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="11"/>
+        <v>-2.4607425563609335E-2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -961,11 +1753,33 @@
         <v>0.1</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="11"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -973,8 +1787,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -982,8 +1814,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -995,11 +1845,32 @@
         <v>0.7</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
-        <v>1.3621371043387192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <f>C38 * LN(C38/0.9)</f>
+        <v>-0.17592009979663434</v>
+      </c>
+      <c r="F38">
+        <f>C38 * LN(C38/(0.74*0.9))</f>
+        <v>3.4853465152110769E-2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1011,11 +1882,33 @@
         <v>0.64</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
-        <v>1.1880307138340007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E39:E47" si="14">C39 * LN(C39/0.9)</f>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F47" si="15">C39 * LN(C39/(0.74*0.9))</f>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1027,11 +1920,33 @@
         <v>0.65</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
-        <v>1.2166714149860345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>-0.21152456028250821</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="15"/>
+        <v>-1.5806249972959131E-2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="12"/>
+        <v>0.96</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1043,11 +1958,33 @@
         <v>0.67</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
-        <v>1.2744120426859369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="15"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="12"/>
+        <v>0.99</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1059,11 +1996,15 @@
         <v>0.7</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
-        <v>1.3621371043387192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>-0.17592009979663434</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="15"/>
+        <v>3.4853465152110769E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1075,11 +2016,18 @@
         <v>0.64</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
-        <v>1.1880307138340007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="15"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1091,11 +2039,29 @@
         <v>0.65</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
-        <v>1.2166714149860345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>-0.21152456028250821</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="15"/>
+        <v>-1.5806249972959131E-2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44">
+        <v>74</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>0.74</v>
+      </c>
+      <c r="N44">
+        <f>L44 * LN(L44/M30)</f>
+        <v>-0.17702996990871725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1107,11 +2073,30 @@
         <v>0.67</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
-        <v>1.2744120426859369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="15"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <f>74-9</f>
+        <v>65</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ref="N45:N55" si="16">L45 * LN(L45/M31)</f>
+        <v>-0.21870695380378838</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1123,11 +2108,29 @@
         <v>0.7</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
-        <v>1.3621371043387192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>-0.17592009979663434</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="15"/>
+        <v>3.4853465152110769E-2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>64</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="16"/>
+        <v>-0.21819301566117966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1139,11 +2142,256 @@
         <v>0.64</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
-        <v>1.1880307138340007</v>
+        <f t="shared" si="14"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="15"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>64</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="16"/>
+        <v>-0.21819301566117966</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48">
+        <v>74</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="3"/>
+        <v>0.74</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="16"/>
+        <v>-0.14485098707331057</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49">
+        <v>64</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="16"/>
+        <v>-0.21819301566117966</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50">
+        <v>64</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="16"/>
+        <v>-0.21819301566117966</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>64</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="16"/>
+        <v>-0.21819301566117966</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52">
+        <v>74</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>0.74</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="16"/>
+        <v>-0.14485098707331057</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53">
+        <v>64</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="16"/>
+        <v>-0.21819301566117966</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54">
+        <v>70</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="16"/>
+        <v>-0.2210970645929341</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55">
+        <v>73</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="3"/>
+        <v>0.73</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="16"/>
+        <v>-0.22240209855992515</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.51338720842685537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.54103843006146324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.54103843006146324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.54103843006146324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.54403674585281481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.54403674585281481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.56426631898716906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.56426631898716906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0.57260740884707617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.57260740884707617</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B11">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/machinelearning/spark/conditionalEntropyCalculation_testSet1.xlsx
+++ b/src/test/java/machinelearning/spark/conditionalEntropyCalculation_testSet1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>P(T contain {h1, h5, h9} &amp; from_ui)</t>
   </si>
@@ -126,9 +126,6 @@
     <t>P*log(P/(Prob_from_h))</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>contain &amp; ~from_hashtag</t>
   </si>
   <si>
@@ -136,13 +133,46 @@
   </si>
   <si>
     <t>MI</t>
+  </si>
+  <si>
+    <t>CE(contain {h1, h5, h9 }| from_ui=T)</t>
+  </si>
+  <si>
+    <t>CE(contain {h1, h5, h9 }| to_ui=T)</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>toUserProb</t>
+  </si>
+  <si>
+    <t>P*log(P/(Prob_to_ui))</t>
+  </si>
+  <si>
+    <t>CE(contain|H)</t>
+  </si>
+  <si>
+    <t>p*log(p/h*pC)</t>
+  </si>
+  <si>
+    <t>CE(Contain|H=T)</t>
+  </si>
+  <si>
+    <t>MI_P</t>
+  </si>
+  <si>
+    <t>MI(contain {h1, h5, h9 }| to_ui=T)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,13 +196,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,8 +232,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -470,46 +514,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
       <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -520,50 +592,69 @@
         <f>B2/100</f>
         <v>0.06</v>
       </c>
+      <c r="D2">
+        <f>3/100</f>
+        <v>0.03</v>
+      </c>
       <c r="E2">
-        <f>L2 * LN(L2/0.1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <f>C2 * LN(C2/0.1)</f>
         <v>-3.0649537425959442E-2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>C2 * LN(C2/(0.26*0.1))</f>
         <v>5.0174881452037107E-2</v>
       </c>
-      <c r="G2">
-        <f>-(E2+E14+E26+E38)</f>
+      <c r="H2">
+        <f>D2 * LN(D2/0.1)</f>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="I2">
+        <f>D2 * LN(D2/(0.1*0.26))</f>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="K2">
+        <f>-(F2+F14+F26+F38)</f>
         <v>0.54403674585281481</v>
       </c>
-      <c r="H2">
-        <f>F2+F14+F26+F38</f>
+      <c r="L2">
+        <f>G2+G14+G26+G38</f>
         <v>2.902017127860558E-2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>6</v>
       </c>
-      <c r="L2">
-        <f>K2/100</f>
+      <c r="P2">
+        <f>O2/100</f>
         <v>0.06</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <f>6/100</f>
         <v>0.06</v>
       </c>
-      <c r="N2">
-        <f>L2 * LN(L2/M2)</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>-(N2+N16+N30+N44)</f>
+      <c r="R2">
+        <f>P2 * LN(P2/Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>P2 * LN(P2/(Q2*0.26))</f>
+        <v>8.0824418877996559E-2</v>
+      </c>
+      <c r="U2">
+        <f>-(R2+R16+R30+R44)</f>
         <v>0.48654247165191977</v>
       </c>
-      <c r="R2">
-        <f>L2 * LN(L2 /(M2*0.26))</f>
-        <v>8.0824418877996559E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V2">
+        <f>(S2+S16+S30+S44)</f>
+        <v>8.6514445479500546E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -574,45 +665,63 @@
         <f t="shared" ref="C3:C47" si="0">B3/100</f>
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>0.03</v>
+      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="1">-(E3+E15+E27+E39)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H35" si="1">D3 * LN(D3/0.1)</f>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="2">D3 * LN(D3/(0.1*0.26))</f>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="3">-(F3+F15+F27+F39)</f>
         <v>0.54103843006146324</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H11" si="2">F3+F15+F27+F39</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="4">G3+G15+G27+G39</f>
         <v>3.2018487069957191E-2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>19</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L55" si="3">K3/100</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P55" si="5">O3/100</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>0.09</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P13" si="4">-(N3+N17+N31+N45)</f>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U13" si="6">-(R3+R17+R31+R45)</f>
         <v>0.54442532561258405</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V3">
+        <f t="shared" ref="V3:V13" si="7">(S3+S17+S31+S45)</f>
+        <v>2.8631591518836416E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -623,47 +732,65 @@
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
+      <c r="D4">
+        <v>0.04</v>
+      </c>
       <c r="E4">
-        <f t="shared" ref="E4:E35" si="5">C4 * LN(C4/0.1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F35" si="8">C4 * LN(C4/0.1)</f>
         <v>-2.3025850929940458E-2</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F10" si="6">C4 * LN(C4/(0.26*0.1))</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="9">C4 * LN(C4/(0.26*0.1))</f>
         <v>-9.5551144502743646E-3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="1"/>
+        <v>-3.6651629274966208E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1.7231316643698168E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
         <v>0.56426631898716906</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
+      <c r="L4">
+        <f t="shared" si="4"/>
         <v>8.7905981442513298E-3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>20</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>0.1</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="4"/>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V4">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -674,47 +801,65 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
       <c r="E5">
-        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="8"/>
         <v>-3.6119184129778083E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <f t="shared" si="9"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-3.218875824868201E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-5.2472852893498227E-3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0.57260740884707617</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="6"/>
-        <v>4.293025309220197E-3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>0.57260740884707617</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>4.4950828434425208E-4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0.1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="4"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V5">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -725,49 +870,67 @@
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
+      <c r="D6">
+        <v>0.03</v>
+      </c>
       <c r="E6">
-        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="8"/>
         <v>-3.0649537425959442E-2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <f t="shared" si="9"/>
+        <v>5.0174881452037107E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.54403674585281481</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>2.902017127860558E-2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q6">
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R10" si="10">P6*LN(P6/Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S3:S13" si="11">P6 * LN(P6/(Q6*0.26))</f>
+        <v>0.13470736479666093</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="6"/>
-        <v>5.0174881452037107E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0.54403674585281481</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>2.902017127860558E-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="M6">
-        <v>0.1</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N10" si="7">L6*LN(L6/M6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="4"/>
         <v>0.42120633876778801</v>
       </c>
-      <c r="R6">
-        <f>L6 * LN(L6 /(M6*0.26))</f>
-        <v>0.13470736479666093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V6">
+        <f>(S6+S20+S34+S48)</f>
+        <v>0.15185057836363236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -778,45 +941,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>0.03</v>
+      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
+      <c r="L7">
+        <f t="shared" si="4"/>
         <v>3.2018487069957191E-2</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>23</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>0.1</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="4"/>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -827,47 +1008,65 @@
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
+      <c r="D8">
+        <v>0.03</v>
+      </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="8"/>
         <v>-2.3025850929940458E-2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <f t="shared" si="9"/>
+        <v>-9.5551144502743646E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.56426631898716906</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>8.7905981442513298E-3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="6"/>
-        <v>-9.5551144502743646E-3</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0.56426631898716906</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>8.7905981442513298E-3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0.1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="4"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -878,47 +1077,65 @@
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
+      <c r="D9">
+        <v>0.01</v>
+      </c>
       <c r="E9">
-        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="8"/>
         <v>-3.6119184129778083E-2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <f t="shared" si="9"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-2.3025850929940458E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>-9.5551144502743646E-3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.57260740884707617</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="6"/>
-        <v>4.293025309220197E-3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0.57260740884707617</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>4.4950828434425208E-4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0.1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -929,49 +1146,67 @@
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
+      <c r="D10">
+        <v>0.02</v>
+      </c>
       <c r="E10">
-        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="8"/>
         <v>-3.0649537425959442E-2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <f t="shared" si="9"/>
+        <v>5.0174881452037107E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-3.218875824868201E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>-5.2472852893498227E-3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.54403674585281481</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>2.902017127860558E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q10">
+        <v>0.1</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="11"/>
+        <v>0.13470736479666093</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="6"/>
-        <v>5.0174881452037107E-2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0.54403674585281481</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>2.902017127860558E-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="M10">
-        <v>0.1</v>
-      </c>
-      <c r="N10">
+        <v>0.42120633876778801</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="4"/>
-        <v>0.42120633876778801</v>
-      </c>
-      <c r="R10">
-        <f>L10 * LN(L10 /(M10*0.26))</f>
-        <v>0.13470736479666093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.15185057836363236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -982,109 +1217,130 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>0.02</v>
+      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
+        <v>-3.218875824868201E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>-5.2472852893498227E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
+      <c r="L11">
+        <f t="shared" si="4"/>
         <v>3.2018487069957191E-2</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>0.1</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V11">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="N12" t="s">
         <v>28</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>0.04</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="4"/>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
         <v>0.56072249448898615</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>1.2334422642434341E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
         <v>29</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>0.01</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="4"/>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
         <v>0.57002815970933329</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V13">
+        <f t="shared" si="7"/>
+        <v>3.0287574220872562E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1095,16 +1351,32 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E14">
+      <c r="D14">
+        <f>(26-(D2*100))/100</f>
+        <v>0.23</v>
+      </c>
+      <c r="F14">
         <f>C14 * LN(C14/0.9)</f>
         <v>-0.30081547935525482</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f>C14* LN(C14/(0.26*0.9))</f>
         <v>-3.140074976193296E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f>D14 * LN(D14/0.9)</f>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="I14">
+        <f>D14 * LN(D14/(0.9*0.26))</f>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="K14">
+        <f>-(F2+F26)</f>
+        <v>6.7301166700925646E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1115,19 +1387,38 @@
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="E15">
-        <f t="shared" ref="E15:E23" si="8">C15 * LN(C15/0.9)</f>
+      <c r="D15">
+        <f t="shared" ref="D15:D23" si="12">(26-(D3*100))/100</f>
+        <v>0.23</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F23" si="13">C15 * LN(C15/0.9)</f>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="F15">
-        <f t="shared" ref="F15:F23" si="9">C15* LN(C15/(0.26*0.9))</f>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="14">C15* LN(C15/(0.26*0.9))</f>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="K15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f t="shared" ref="H15:H23" si="15">D15 * LN(D15/0.9)</f>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I23" si="16">D15 * LN(D15/(0.9*0.26))</f>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K23" si="17">-(F3+F27)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1138,30 +1429,54 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="8"/>
+      <c r="D16">
+        <f t="shared" si="12"/>
+        <v>0.22</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="13"/>
         <v>-0.32023346136551606</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="9"/>
+      <c r="G16">
+        <f t="shared" si="14"/>
         <v>1.6534950626136247E-2</v>
       </c>
-      <c r="J16" t="s">
+      <c r="H16">
+        <f t="shared" si="15"/>
+        <v>-0.30992878773382881</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="16"/>
+        <v>-1.3572585181174778E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="17"/>
+        <v>3.2508297339144836E-2</v>
+      </c>
+      <c r="N16" t="s">
         <v>18</v>
       </c>
-      <c r="K16">
+      <c r="O16">
         <v>20</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="3"/>
+      <c r="P16">
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="N16">
-        <f>L16*LN(L16/M30)</f>
+      <c r="R16">
+        <f>P16*LN(P16/Q30)</f>
         <v>-0.30951250174320255</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S16">
+        <f>P16*LN(P16/(Q30*0.26))</f>
+        <v>-4.0097772149880723E-2</v>
+      </c>
+      <c r="U16">
+        <f>-(R2+R30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1172,30 +1487,54 @@
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="8"/>
+      <c r="D17">
+        <f t="shared" si="12"/>
+        <v>0.24</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="13"/>
         <v>-0.31379255451225652</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="9"/>
+      <c r="G17">
+        <f t="shared" si="14"/>
         <v>-3.9656154799364036E-3</v>
       </c>
-      <c r="J17" t="s">
+      <c r="H17">
+        <f t="shared" si="15"/>
+        <v>-0.31722140159575668</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="16"/>
+        <v>6.0762739162295489E-3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="17"/>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N17" t="s">
         <v>19</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <v>26</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="3"/>
+      <c r="P17">
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="N17">
-        <f t="shared" ref="N17:N27" si="10">L17*LN(L17/M31)</f>
+      <c r="R17">
+        <f t="shared" ref="R17:R27" si="18">P17*LN(P17/Q31)</f>
         <v>-0.3257183718087957</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S17">
+        <f t="shared" ref="S17:S27" si="19">P17*LN(P17/(Q31*0.26))</f>
+        <v>2.452077666252277E-2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ref="U17:U27" si="20">-(R3+R31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1206,30 +1545,54 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="8"/>
+      <c r="D18">
+        <f t="shared" si="12"/>
+        <v>0.23</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="13"/>
         <v>-0.30081547935525482</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="9"/>
+      <c r="G18">
+        <f t="shared" si="14"/>
         <v>-3.140074976193296E-2</v>
       </c>
-      <c r="J18" t="s">
+      <c r="H18">
+        <f t="shared" si="15"/>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="16"/>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="17"/>
+        <v>6.7301166700925646E-2</v>
+      </c>
+      <c r="N18" t="s">
         <v>20</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <v>26</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="3"/>
+      <c r="P18">
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="10"/>
+      <c r="R18">
+        <f t="shared" si="18"/>
         <v>-0.32284541440028358</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1240,30 +1603,54 @@
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="8"/>
+      <c r="D19">
+        <f t="shared" si="12"/>
+        <v>0.23</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="13"/>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="9"/>
+      <c r="G19">
+        <f t="shared" si="14"/>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="J19" t="s">
+      <c r="H19">
+        <f t="shared" si="15"/>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="16"/>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
         <v>21</v>
       </c>
-      <c r="K19">
+      <c r="O19">
         <v>26</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="3"/>
+      <c r="P19">
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="10"/>
+      <c r="R19">
+        <f t="shared" si="18"/>
         <v>-0.32284541440028358</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1274,30 +1661,54 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="8"/>
+      <c r="D20">
+        <f t="shared" si="12"/>
+        <v>0.23</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="13"/>
         <v>-0.32023346136551606</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="9"/>
+      <c r="G20">
+        <f t="shared" si="14"/>
         <v>1.6534950626136247E-2</v>
       </c>
-      <c r="J20" t="s">
+      <c r="H20">
+        <f t="shared" si="15"/>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="16"/>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="17"/>
+        <v>3.2508297339144836E-2</v>
+      </c>
+      <c r="N20" t="s">
         <v>22</v>
       </c>
-      <c r="K20">
+      <c r="O20">
         <v>16</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="3"/>
+      <c r="P20">
+        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="10"/>
+      <c r="R20">
+        <f t="shared" si="18"/>
         <v>-0.27635535169447745</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S20">
+        <f t="shared" si="19"/>
+        <v>-6.0823568019819918E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1308,30 +1719,54 @@
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="8"/>
+      <c r="D21">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="13"/>
         <v>-0.31379255451225652</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="9"/>
+      <c r="G21">
+        <f t="shared" si="14"/>
         <v>-3.9656154799364036E-3</v>
       </c>
-      <c r="J21" t="s">
+      <c r="H21">
+        <f t="shared" si="15"/>
+        <v>-0.32023346136551606</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="16"/>
+        <v>1.6534950626136247E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="17"/>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N21" t="s">
         <v>23</v>
       </c>
-      <c r="K21">
+      <c r="O21">
         <v>26</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="3"/>
+      <c r="P21">
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="10"/>
+      <c r="R21">
+        <f t="shared" si="18"/>
         <v>-0.32284541440028358</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S21">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1342,30 +1777,54 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="8"/>
+      <c r="D22">
+        <f t="shared" si="12"/>
+        <v>0.24</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="13"/>
         <v>-0.30081547935525482</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="9"/>
+      <c r="G22">
+        <f t="shared" si="14"/>
         <v>-3.140074976193296E-2</v>
       </c>
-      <c r="J22" t="s">
+      <c r="H22">
+        <f t="shared" si="15"/>
+        <v>-0.31722140159575668</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="16"/>
+        <v>6.0762739162295489E-3</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="17"/>
+        <v>6.7301166700925646E-2</v>
+      </c>
+      <c r="N22" t="s">
         <v>24</v>
       </c>
-      <c r="K22">
+      <c r="O22">
         <v>26</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="3"/>
+      <c r="P22">
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="10"/>
+      <c r="R22">
+        <f t="shared" si="18"/>
         <v>-0.32284541440028358</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1376,73 +1835,108 @@
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="8"/>
+      <c r="D23">
+        <f t="shared" si="12"/>
+        <v>0.24</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="13"/>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="9"/>
+      <c r="G23">
+        <f t="shared" si="14"/>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="J23" t="s">
+      <c r="H23">
+        <f t="shared" si="15"/>
+        <v>-0.31722140159575668</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="16"/>
+        <v>6.0762739162295489E-3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
         <v>25</v>
       </c>
-      <c r="K23">
+      <c r="O23">
         <v>26</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="3"/>
+      <c r="P23">
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="10"/>
+      <c r="R23">
+        <f t="shared" si="18"/>
         <v>-0.32284541440028358</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="S23">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="K24">
+      <c r="O24">
         <v>16</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="3"/>
+      <c r="P24">
+        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="10"/>
+      <c r="R24">
+        <f t="shared" si="18"/>
         <v>-0.27635535169447745</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <f t="shared" si="19"/>
+        <v>-6.0823568019819918E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" t="s">
         <v>27</v>
       </c>
-      <c r="K25">
+      <c r="O25">
         <v>26</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="3"/>
+      <c r="P25">
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="10"/>
+      <c r="R25">
+        <f t="shared" si="18"/>
         <v>-0.32284541440028358</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1453,30 +1947,54 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="5"/>
+      <c r="D26">
+        <f>(10-(D2*100))/100</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
         <v>-3.6651629274966208E-2</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f>C26 * LN(C26/(0.74*0.1))</f>
         <v>-2.4607425563609335E-2</v>
       </c>
-      <c r="J26" t="s">
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="I26">
+        <f>D26 * LN(D26/(0.74*0.1))</f>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K26">
+        <f>-(H2+H26)</f>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N26" t="s">
         <v>28</v>
       </c>
-      <c r="K26">
+      <c r="O26">
         <v>26</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="3"/>
+      <c r="P26">
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="10"/>
+      <c r="R26">
+        <f t="shared" si="18"/>
         <v>-0.33962542989605204</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <f t="shared" si="19"/>
+        <v>1.0613718575266353E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1487,30 +2005,54 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="D27">
+        <f t="shared" ref="D27:D35" si="21">(10-(D3*100))/100</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F35" si="11">C27 * LN(C27/(0.74*0.1))</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G35" si="22">C27 * LN(C27/(0.74*0.1))</f>
         <v>3.0110509278392178E-2</v>
       </c>
-      <c r="J27" t="s">
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I35" si="23">D27 * LN(D27/(0.74*0.1))</f>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K35" si="24">-(H3+H27)</f>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N27" t="s">
         <v>29</v>
       </c>
-      <c r="K27">
+      <c r="O27">
         <v>26</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="3"/>
+      <c r="P27">
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="10"/>
+      <c r="R27">
+        <f t="shared" si="18"/>
         <v>-0.34762606114940808</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S27">
+        <f t="shared" si="19"/>
+        <v>2.6130873219103916E-3</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1521,16 +2063,32 @@
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="5"/>
+      <c r="D28">
+        <f t="shared" si="21"/>
+        <v>0.06</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
         <v>-9.4824464092043755E-3</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="11"/>
+      <c r="G28">
+        <f t="shared" si="22"/>
         <v>1.7617011941348581E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>-3.0649537425959442E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="23"/>
+        <v>-1.258323185892414E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="24"/>
+        <v>6.7301166700925646E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1541,19 +2099,35 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="5"/>
+      <c r="D29">
+        <f t="shared" si="21"/>
+        <v>0.08</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
         <v>-2.4967246075711262E-2</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="11"/>
+      <c r="G29">
+        <f t="shared" si="22"/>
         <v>-3.889889580836746E-3</v>
       </c>
-      <c r="K29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>-1.7851484105136789E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="23"/>
+        <v>6.2369233175769536E-3</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="24"/>
+        <v>5.0040242353818799E-2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1564,33 +2138,52 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="5"/>
+      <c r="D30">
+        <f t="shared" si="21"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
         <v>-3.6651629274966208E-2</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="11"/>
+      <c r="G30">
+        <f t="shared" si="22"/>
         <v>-2.4607425563609335E-2</v>
       </c>
-      <c r="J30" t="s">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="23"/>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="24"/>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N30" t="s">
         <v>18</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <f>1-M2</f>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f>1-Q2</f>
         <v>0.94</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1601,34 +2194,54 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="D31">
+        <f t="shared" si="21"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="22"/>
         <v>3.0110509278392178E-2</v>
       </c>
-      <c r="J31" t="s">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="23"/>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="24"/>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N31" t="s">
         <v>19</v>
       </c>
-      <c r="K31">
+      <c r="O31">
         <v>9</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="3"/>
+      <c r="P31">
+        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
-      <c r="M31">
-        <f t="shared" ref="M31:M41" si="12">1-M3</f>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q41" si="25">1-Q3</f>
         <v>0.91</v>
       </c>
-      <c r="N31">
-        <f>L31*LN(L31/M3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <f>P31*LN(P31/Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f>P31 * LN(P31/(Q3*0.74))</f>
+        <v>2.7099458350552958E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1639,34 +2252,54 @@
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="5"/>
+      <c r="D32">
+        <f t="shared" si="21"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
         <v>-9.4824464092043755E-3</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="11"/>
+      <c r="G32">
+        <f t="shared" si="22"/>
         <v>1.7617011941348581E-2</v>
       </c>
-      <c r="J32" t="s">
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="23"/>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="24"/>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N32" t="s">
         <v>20</v>
       </c>
-      <c r="K32">
+      <c r="O32">
         <v>10</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="3"/>
+      <c r="P32">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="12"/>
+      <c r="Q32">
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="N32">
-        <f t="shared" ref="N32:N41" si="13">L32*LN(L32/M4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <f t="shared" ref="R32:R41" si="26">P32*LN(P32/Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ref="S32:S41" si="27">P32 * LN(P32/(Q4*0.74))</f>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1677,34 +2310,54 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="5"/>
+      <c r="D33">
+        <f t="shared" si="21"/>
+        <v>0.09</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
         <v>-2.4967246075711262E-2</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="11"/>
+      <c r="G33">
+        <f t="shared" si="22"/>
         <v>-3.889889580836746E-3</v>
       </c>
-      <c r="J33" t="s">
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>-9.4824464092043755E-3</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="23"/>
+        <v>1.7617011941348581E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="24"/>
+        <v>3.2508297339144836E-2</v>
+      </c>
+      <c r="N33" t="s">
         <v>21</v>
       </c>
-      <c r="K33">
+      <c r="O33">
         <v>10</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="3"/>
+      <c r="P33">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="12"/>
+      <c r="Q33">
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="N33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1715,33 +2368,52 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="5"/>
+      <c r="D34">
+        <f t="shared" si="21"/>
+        <v>0.08</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
         <v>-3.6651629274966208E-2</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="11"/>
+      <c r="G34">
+        <f t="shared" si="22"/>
         <v>-2.4607425563609335E-2</v>
       </c>
-      <c r="J34" t="s">
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>-1.7851484105136789E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="23"/>
+        <v>6.2369233175769536E-3</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="24"/>
+        <v>5.0040242353818799E-2</v>
+      </c>
+      <c r="N34" t="s">
         <v>22</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="12"/>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1752,88 +2424,111 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="D35">
+        <f t="shared" si="21"/>
+        <v>0.08</v>
       </c>
       <c r="F35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="22"/>
         <v>3.0110509278392178E-2</v>
       </c>
-      <c r="J35" t="s">
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>-1.7851484105136789E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="23"/>
+        <v>6.2369233175769536E-3</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="24"/>
+        <v>5.0040242353818799E-2</v>
+      </c>
+      <c r="N35" t="s">
         <v>23</v>
       </c>
-      <c r="K35">
+      <c r="O35">
         <v>10</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="3"/>
+      <c r="P35">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="12"/>
+      <c r="Q35">
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="N36" t="s">
         <v>24</v>
       </c>
-      <c r="K36">
+      <c r="O36">
         <v>10</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="3"/>
+      <c r="P36">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="12"/>
+      <c r="Q36">
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" t="s">
         <v>25</v>
       </c>
-      <c r="K37">
+      <c r="O37">
         <v>10</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="3"/>
+      <c r="P37">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="12"/>
+      <c r="Q37">
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1844,33 +2539,52 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E38">
+      <c r="D38">
+        <f>(74-(D26*100))/100</f>
+        <v>0.67</v>
+      </c>
+      <c r="F38">
         <f>C38 * LN(C38/0.9)</f>
         <v>-0.17592009979663434</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <f>C38 * LN(C38/(0.74*0.9))</f>
         <v>3.4853465152110769E-2</v>
       </c>
-      <c r="J38" t="s">
+      <c r="H38">
+        <f>D38 * LN(D38/0.9)</f>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="I38">
+        <f>D38 * LN(D38/(0.74*0.9))</f>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="K38">
+        <f>(I2+I14+I26+I38)</f>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="N38" t="s">
         <v>26</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="12"/>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1881,34 +2595,54 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="E39">
-        <f t="shared" ref="E39:E47" si="14">C39 * LN(C39/0.9)</f>
+      <c r="D39">
+        <f t="shared" ref="D39:D47" si="28">(74-(D27*100))/100</f>
+        <v>0.67</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F47" si="29">C39 * LN(C39/0.9)</f>
         <v>-0.21819301566117966</v>
       </c>
-      <c r="F39">
-        <f t="shared" ref="F39:F47" si="15">C39 * LN(C39/(0.74*0.9))</f>
+      <c r="G39">
+        <f t="shared" ref="G39:G47" si="30">C39 * LN(C39/(0.74*0.9))</f>
         <v>-2.5485756279469831E-2</v>
       </c>
-      <c r="J39" t="s">
+      <c r="H39">
+        <f t="shared" ref="H39:H47" si="31">D39 * LN(D39/0.9)</f>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I47" si="32">D39 * LN(D39/(0.74*0.9))</f>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:K47" si="33">(I3+I15+I27+I39)</f>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="N39" t="s">
         <v>27</v>
       </c>
-      <c r="K39">
+      <c r="O39">
         <v>10</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="3"/>
+      <c r="P39">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="12"/>
+      <c r="Q39">
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1919,34 +2653,54 @@
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="14"/>
+      <c r="D40">
+        <f t="shared" si="28"/>
+        <v>0.68</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="29"/>
         <v>-0.21152456028250821</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="15"/>
+      <c r="G40">
+        <f t="shared" si="30"/>
         <v>-1.5806249972959131E-2</v>
       </c>
-      <c r="J40" t="s">
+      <c r="H40">
+        <f t="shared" si="31"/>
+        <v>-0.19060533630482773</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="32"/>
+        <v>1.4146126788239063E-2</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="33"/>
+        <v>5.2216263918383118E-3</v>
+      </c>
+      <c r="N40" t="s">
         <v>28</v>
       </c>
-      <c r="K40">
+      <c r="O40">
         <v>4</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="3"/>
+      <c r="P40">
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="12"/>
+      <c r="Q40">
+        <f t="shared" si="25"/>
         <v>0.96</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="27"/>
+        <v>1.2044203711356866E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1957,34 +2711,54 @@
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="14"/>
+      <c r="D41">
+        <f t="shared" si="28"/>
+        <v>0.66</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="29"/>
         <v>-0.19772842412933031</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="15"/>
+      <c r="G41">
+        <f t="shared" si="30"/>
         <v>4.0119880358972047E-3</v>
       </c>
-      <c r="J41" t="s">
+      <c r="H41">
+        <f t="shared" si="31"/>
+        <v>-0.20470225268053405</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="32"/>
+        <v>-5.9728914431458327E-3</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="33"/>
+        <v>1.0930205013108471E-3</v>
+      </c>
+      <c r="N41" t="s">
         <v>29</v>
       </c>
-      <c r="K41">
+      <c r="O41">
         <v>1</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="3"/>
+      <c r="P41">
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="12"/>
+      <c r="Q41">
+        <f t="shared" si="25"/>
         <v>0.99</v>
       </c>
-      <c r="N41">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392164E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1995,16 +2769,32 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="14"/>
+      <c r="D42">
+        <f t="shared" si="28"/>
+        <v>0.67</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="29"/>
         <v>-0.17592009979663434</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="15"/>
+      <c r="G42">
+        <f t="shared" si="30"/>
         <v>3.4853465152110769E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <f t="shared" si="31"/>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="32"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="33"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2015,19 +2805,35 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="14"/>
+      <c r="D43">
+        <f t="shared" si="28"/>
+        <v>0.67</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="29"/>
         <v>-0.21819301566117966</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="15"/>
+      <c r="G43">
+        <f t="shared" si="30"/>
         <v>-2.5485756279469831E-2</v>
       </c>
-      <c r="K43" t="s">
+      <c r="H43">
+        <f t="shared" si="31"/>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="32"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="33"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="O43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2038,30 +2844,50 @@
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="14"/>
+      <c r="D44">
+        <f t="shared" si="28"/>
+        <v>0.67</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="29"/>
         <v>-0.21152456028250821</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="15"/>
+      <c r="G44">
+        <f t="shared" si="30"/>
         <v>-1.5806249972959131E-2</v>
       </c>
-      <c r="J44" t="s">
+      <c r="H44">
+        <f t="shared" si="31"/>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="32"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="33"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="N44" t="s">
         <v>18</v>
       </c>
-      <c r="K44">
+      <c r="O44">
         <v>74</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="3"/>
+      <c r="P44">
+        <f t="shared" si="5"/>
         <v>0.74</v>
       </c>
-      <c r="N44">
-        <f>L44 * LN(L44/M30)</f>
+      <c r="R44">
+        <f t="shared" ref="R44:R55" si="34">P44 * LN(P44/Q30)</f>
         <v>-0.17702996990871725</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S44">
+        <f>P44 * LN(P44/(Q30*0.74))</f>
+        <v>4.5787798751384716E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2072,31 +2898,51 @@
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="14"/>
+      <c r="D45">
+        <f t="shared" si="28"/>
+        <v>0.65</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="29"/>
         <v>-0.19772842412933031</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="15"/>
+      <c r="G45">
+        <f t="shared" si="30"/>
         <v>4.0119880358972047E-3</v>
       </c>
-      <c r="J45" t="s">
+      <c r="H45">
+        <f t="shared" si="31"/>
+        <v>-0.21152456028250821</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="32"/>
+        <v>-1.5806249972959131E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="33"/>
+        <v>8.7905981442513298E-3</v>
+      </c>
+      <c r="N45" t="s">
         <v>19</v>
       </c>
-      <c r="K45">
+      <c r="O45">
         <f>74-9</f>
         <v>65</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="3"/>
+      <c r="P45">
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
-      <c r="N45">
-        <f t="shared" ref="N45:N55" si="16">L45 * LN(L45/M31)</f>
+      <c r="R45">
+        <f t="shared" si="34"/>
         <v>-0.21870695380378838</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S45">
+        <f t="shared" ref="S45:S55" si="35">P45 * LN(P45/(Q31*0.74))</f>
+        <v>-2.2988643494239312E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2107,30 +2953,50 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="14"/>
+      <c r="D46">
+        <f t="shared" si="28"/>
+        <v>0.66</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="29"/>
         <v>-0.17592009979663434</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="15"/>
+      <c r="G46">
+        <f t="shared" si="30"/>
         <v>3.4853465152110769E-2</v>
       </c>
-      <c r="J46" t="s">
+      <c r="H46">
+        <f t="shared" si="31"/>
+        <v>-0.20470225268053405</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="32"/>
+        <v>-5.9728914431458327E-3</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="33"/>
+        <v>1.0930205013108471E-3</v>
+      </c>
+      <c r="N46" t="s">
         <v>20</v>
       </c>
-      <c r="K46">
+      <c r="O46">
         <v>64</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="3"/>
+      <c r="P46">
+        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
-      <c r="N46">
-        <f t="shared" si="16"/>
+      <c r="R46">
+        <f t="shared" si="34"/>
         <v>-0.21819301566117966</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S46">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2141,155 +3007,207 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="14"/>
+      <c r="D47">
+        <f t="shared" si="28"/>
+        <v>0.66</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="29"/>
         <v>-0.21819301566117966</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="15"/>
+      <c r="G47">
+        <f t="shared" si="30"/>
         <v>-2.5485756279469831E-2</v>
       </c>
-      <c r="J47" t="s">
+      <c r="H47">
+        <f t="shared" si="31"/>
+        <v>-0.20470225268053405</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="32"/>
+        <v>-5.9728914431458327E-3</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="33"/>
+        <v>1.0930205013108471E-3</v>
+      </c>
+      <c r="N47" t="s">
         <v>21</v>
       </c>
-      <c r="K47">
+      <c r="O47">
         <v>64</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="3"/>
+      <c r="P47">
+        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
-      <c r="N47">
-        <f t="shared" si="16"/>
+      <c r="R47">
+        <f t="shared" si="34"/>
         <v>-0.21819301566117966</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J48" t="s">
+      <c r="S47">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N48" t="s">
         <v>22</v>
       </c>
-      <c r="K48">
+      <c r="O48">
         <v>74</v>
       </c>
-      <c r="L48">
-        <f t="shared" si="3"/>
+      <c r="P48">
+        <f t="shared" si="5"/>
         <v>0.74</v>
       </c>
-      <c r="N48">
-        <f t="shared" si="16"/>
+      <c r="R48">
+        <f t="shared" si="34"/>
         <v>-0.14485098707331057</v>
       </c>
-    </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J49" t="s">
+      <c r="S48">
+        <f t="shared" si="35"/>
+        <v>7.7966781586791351E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="14:19" x14ac:dyDescent="0.2">
+      <c r="N49" t="s">
         <v>23</v>
       </c>
-      <c r="K49">
+      <c r="O49">
         <v>64</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="3"/>
+      <c r="P49">
+        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
-      <c r="N49">
-        <f t="shared" si="16"/>
+      <c r="R49">
+        <f t="shared" si="34"/>
         <v>-0.21819301566117966</v>
       </c>
-    </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J50" t="s">
+      <c r="S49">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="14:19" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
         <v>24</v>
       </c>
-      <c r="K50">
+      <c r="O50">
         <v>64</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="3"/>
+      <c r="P50">
+        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
-      <c r="N50">
-        <f t="shared" si="16"/>
+      <c r="R50">
+        <f t="shared" si="34"/>
         <v>-0.21819301566117966</v>
       </c>
-    </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J51" t="s">
+      <c r="S50">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="14:19" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
         <v>25</v>
       </c>
-      <c r="K51">
+      <c r="O51">
         <v>64</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="3"/>
+      <c r="P51">
+        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
-      <c r="N51">
-        <f t="shared" si="16"/>
+      <c r="R51">
+        <f t="shared" si="34"/>
         <v>-0.21819301566117966</v>
       </c>
-    </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J52" t="s">
+      <c r="S51">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="14:19" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
         <v>26</v>
       </c>
-      <c r="K52">
+      <c r="O52">
         <v>74</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="3"/>
+      <c r="P52">
+        <f t="shared" si="5"/>
         <v>0.74</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="16"/>
+      <c r="R52">
+        <f t="shared" si="34"/>
         <v>-0.14485098707331057</v>
       </c>
-    </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J53" t="s">
+      <c r="S52">
+        <f t="shared" si="35"/>
+        <v>7.7966781586791351E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="14:19" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
         <v>27</v>
       </c>
-      <c r="K53">
+      <c r="O53">
         <v>64</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="3"/>
+      <c r="P53">
+        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="16"/>
+      <c r="R53">
+        <f t="shared" si="34"/>
         <v>-0.21819301566117966</v>
       </c>
-    </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J54" t="s">
+      <c r="S53">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="14:19" x14ac:dyDescent="0.2">
+      <c r="N54" t="s">
         <v>28</v>
       </c>
-      <c r="K54">
+      <c r="O54">
         <v>70</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="3"/>
+      <c r="P54">
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="N54">
-        <f t="shared" si="16"/>
+      <c r="R54">
+        <f t="shared" si="34"/>
         <v>-0.2210970645929341</v>
       </c>
-    </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J55" t="s">
+      <c r="S54">
+        <f t="shared" si="35"/>
+        <v>-1.0323499644188877E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="14:19" x14ac:dyDescent="0.2">
+      <c r="N55" t="s">
         <v>29</v>
       </c>
-      <c r="K55">
+      <c r="O55">
         <v>73</v>
       </c>
-      <c r="L55">
-        <f t="shared" si="3"/>
+      <c r="P55">
+        <f t="shared" si="5"/>
         <v>0.73</v>
       </c>
-      <c r="N55">
-        <f t="shared" si="16"/>
+      <c r="R55">
+        <f t="shared" si="34"/>
         <v>-0.22240209855992515</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="35"/>
+        <v>-2.5953808276623518E-3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/machinelearning/spark/conditionalEntropyCalculation_testSet1.xlsx
+++ b/src/test/java/machinelearning/spark/conditionalEntropyCalculation_testSet1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="47">
   <si>
     <t>P(T contain {h1, h5, h9} &amp; from_ui)</t>
   </si>
@@ -516,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3070,7 +3071,7 @@
         <v>7.7966781586791351E-2</v>
       </c>
     </row>
-    <row r="49" spans="14:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="N49" t="s">
         <v>23</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>-2.5485756279469831E-2</v>
       </c>
     </row>
-    <row r="50" spans="14:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="N50" t="s">
         <v>24</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>-2.5485756279469831E-2</v>
       </c>
     </row>
-    <row r="51" spans="14:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="N51" t="s">
         <v>25</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>-2.5485756279469831E-2</v>
       </c>
     </row>
-    <row r="52" spans="14:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="N52" t="s">
         <v>26</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>7.7966781586791351E-2</v>
       </c>
     </row>
-    <row r="53" spans="14:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="N53" t="s">
         <v>27</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>-2.5485756279469831E-2</v>
       </c>
     </row>
-    <row r="54" spans="14:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="N54" t="s">
         <v>28</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>-1.0323499644188877E-2</v>
       </c>
     </row>
-    <row r="55" spans="14:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="N55" t="s">
         <v>29</v>
       </c>
@@ -3217,6 +3218,2709 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>B2/100</f>
+        <v>0.06</v>
+      </c>
+      <c r="D2">
+        <f>3/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <f>C2 * LN(C2/0.1)</f>
+        <v>-3.0649537425959442E-2</v>
+      </c>
+      <c r="G2">
+        <f>C2 * LN(C2/(0.26*0.1))</f>
+        <v>5.0174881452037107E-2</v>
+      </c>
+      <c r="H2">
+        <f>D2 * LN(D2/0.1)</f>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="I2">
+        <f>D2 * LN(D2/(0.1*0.26))</f>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="K2">
+        <f>-(F2+F14+F26+F38)</f>
+        <v>0.54403674585281481</v>
+      </c>
+      <c r="L2">
+        <f>G2+G14+G26+G38</f>
+        <v>2.902017127860558E-2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <f>O2/100</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q2">
+        <f>6/100</f>
+        <v>0.06</v>
+      </c>
+      <c r="R2">
+        <f>P2 * LN(P2/Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>P2 * LN(P2/(Q2*0.26))</f>
+        <v>8.0824418877996559E-2</v>
+      </c>
+      <c r="U2">
+        <f>-(R2+R16+R30+R44)</f>
+        <v>0.48654247165191977</v>
+      </c>
+      <c r="V2">
+        <f>(S2+S16+S30+S44)</f>
+        <v>8.6514445479500546E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C47" si="0">B3/100</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.03</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H35" si="1">D3 * LN(D3/0.1)</f>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="2">D3 * LN(D3/(0.1*0.26))</f>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="3">-(F3+F15+F27+F39)</f>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="4">G3+G15+G27+G39</f>
+        <v>3.2018487069957191E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P55" si="5">O3/100</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.09</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U13" si="6">-(R3+R17+R31+R45)</f>
+        <v>0.54442532561258405</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V13" si="7">(S3+S17+S31+S45)</f>
+        <v>2.8631591518836416E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>0.04</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F35" si="8">C4 * LN(C4/0.1)</f>
+        <v>-2.3025850929940458E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="9">C4 * LN(C4/(0.26*0.1))</f>
+        <v>-9.5551144502743646E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-3.6651629274966208E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1.7231316643698168E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0.56426631898716906</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>8.7905981442513298E-3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="8"/>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="9"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-3.218875824868201E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-5.2472852893498227E-3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0.57260740884707617</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="D6">
+        <v>0.03</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="8"/>
+        <v>-3.0649537425959442E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="9"/>
+        <v>5.0174881452037107E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.54403674585281481</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>2.902017127860558E-2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q6">
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R10" si="10">P6*LN(P6/Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S16" si="11">P6 * LN(P6/(Q6*0.26))</f>
+        <v>0.13470736479666093</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>0.42120633876778801</v>
+      </c>
+      <c r="V6">
+        <f>(S6+S20+S34+S48)</f>
+        <v>0.15185057836363236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.03</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>0.03</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="8"/>
+        <v>-2.3025850929940458E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="9"/>
+        <v>-9.5551144502743646E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.56426631898716906</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>8.7905981442513298E-3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="D9">
+        <v>0.01</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="8"/>
+        <v>-3.6119184129778083E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="9"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-2.3025850929940458E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>-9.5551144502743646E-3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.57260740884707617</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="D10">
+        <v>0.02</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="8"/>
+        <v>-3.0649537425959442E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="9"/>
+        <v>5.0174881452037107E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-3.218875824868201E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>-5.2472852893498227E-3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.54403674585281481</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>2.902017127860558E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q10">
+        <v>0.1</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="11"/>
+        <v>0.13470736479666093</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>0.42120633876778801</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>0.15185057836363236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.02</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-3.218875824868201E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>-5.2472852893498227E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>0.54103843006146324</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="7"/>
+        <v>3.2018487069957191E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.04</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>0.56072249448898615</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>1.2334422642434341E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.01</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>0.57002815970933329</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="7"/>
+        <v>3.0287574220872562E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D14">
+        <f>(26-(D2*100))/100</f>
+        <v>0.23</v>
+      </c>
+      <c r="F14">
+        <f>C14 * LN(C14/0.9)</f>
+        <v>-0.30081547935525482</v>
+      </c>
+      <c r="G14">
+        <f>C14* LN(C14/(0.26*0.9))</f>
+        <v>-3.140074976193296E-2</v>
+      </c>
+      <c r="H14">
+        <f>D14 * LN(D14/0.9)</f>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="I14">
+        <f>D14 * LN(D14/(0.9*0.26))</f>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="K14">
+        <f>-(F2+F26)</f>
+        <v>6.7301166700925646E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D23" si="12">(26-(D3*100))/100</f>
+        <v>0.23</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F23" si="13">C15 * LN(C15/0.9)</f>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G23" si="14">C15* LN(C15/(0.26*0.9))</f>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H23" si="15">D15 * LN(D15/0.9)</f>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I23" si="16">D15 * LN(D15/(0.9*0.26))</f>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K23" si="17">-(F3+F27)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="12"/>
+        <v>0.22</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="13"/>
+        <v>-0.32023346136551606</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="14"/>
+        <v>1.6534950626136247E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="15"/>
+        <v>-0.30992878773382881</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="16"/>
+        <v>-1.3572585181174778E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="17"/>
+        <v>3.2508297339144836E-2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="R16">
+        <f>P16*LN(P16/Q30)</f>
+        <v>-0.30951250174320255</v>
+      </c>
+      <c r="S16">
+        <f>P16*LN(P16/(Q30*0.26))</f>
+        <v>-4.0097772149880723E-2</v>
+      </c>
+      <c r="U16">
+        <f>-(R2+R30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="12"/>
+        <v>0.24</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="13"/>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="14"/>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="15"/>
+        <v>-0.31722140159575668</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="16"/>
+        <v>6.0762739162295489E-3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="17"/>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>26</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:R27" si="18">P17*LN(P17/Q31)</f>
+        <v>-0.3257183718087957</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:S27" si="19">P17*LN(P17/(Q31*0.26))</f>
+        <v>2.452077666252277E-2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ref="U17:U27" si="20">-(R3+R31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="12"/>
+        <v>0.23</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="13"/>
+        <v>-0.30081547935525482</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="14"/>
+        <v>-3.140074976193296E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="15"/>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="16"/>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="17"/>
+        <v>6.7301166700925646E-2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>26</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="18"/>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="12"/>
+        <v>0.23</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="13"/>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="14"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="15"/>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="16"/>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19">
+        <v>26</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="18"/>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="12"/>
+        <v>0.23</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="13"/>
+        <v>-0.32023346136551606</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="14"/>
+        <v>1.6534950626136247E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="15"/>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="16"/>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="17"/>
+        <v>3.2508297339144836E-2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>0.16</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="18"/>
+        <v>-0.27635535169447745</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="19"/>
+        <v>-6.0823568019819918E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="13"/>
+        <v>-0.31379255451225652</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="14"/>
+        <v>-3.9656154799364036E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="15"/>
+        <v>-0.32023346136551606</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="16"/>
+        <v>1.6534950626136247E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="17"/>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21">
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="18"/>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="12"/>
+        <v>0.24</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="13"/>
+        <v>-0.30081547935525482</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="14"/>
+        <v>-3.140074976193296E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="15"/>
+        <v>-0.31722140159575668</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="16"/>
+        <v>6.0762739162295489E-3</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="17"/>
+        <v>6.7301166700925646E-2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22">
+        <v>26</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="18"/>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="12"/>
+        <v>0.24</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="13"/>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="14"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="15"/>
+        <v>-0.31722140159575668</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="16"/>
+        <v>6.0762739162295489E-3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23">
+        <v>26</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="18"/>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>0.16</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="18"/>
+        <v>-0.27635535169447745</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="19"/>
+        <v>-6.0823568019819918E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25">
+        <v>26</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="18"/>
+        <v>-0.32284541440028358</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="19"/>
+        <v>2.7393734071034851E-2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="D26">
+        <f>(10-(D2*100))/100</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>-3.6651629274966208E-2</v>
+      </c>
+      <c r="G26">
+        <f>C26 * LN(C26/(0.74*0.1))</f>
+        <v>-2.4607425563609335E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="I26">
+        <f>D26 * LN(D26/(0.74*0.1))</f>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K26">
+        <f>-(H2+H26)</f>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26">
+        <v>26</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="18"/>
+        <v>-0.33962542989605204</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="19"/>
+        <v>1.0613718575266353E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D35" si="21">(10-(D3*100))/100</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G35" si="22">C27 * LN(C27/(0.74*0.1))</f>
+        <v>3.0110509278392178E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I35" si="23">D27 * LN(D27/(0.74*0.1))</f>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K35" si="24">-(H3+H27)</f>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27">
+        <v>26</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="18"/>
+        <v>-0.34762606114940808</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="19"/>
+        <v>2.6130873219103916E-3</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="21"/>
+        <v>0.06</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>-9.4824464092043755E-3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="22"/>
+        <v>1.7617011941348581E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>-3.0649537425959442E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="23"/>
+        <v>-1.258323185892414E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="24"/>
+        <v>6.7301166700925646E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="21"/>
+        <v>0.08</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="22"/>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>-1.7851484105136789E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="23"/>
+        <v>6.2369233175769536E-3</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="24"/>
+        <v>5.0040242353818799E-2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="21"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>-3.6651629274966208E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="22"/>
+        <v>-2.4607425563609335E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="23"/>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="24"/>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f>1-Q2</f>
+        <v>0.94</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="21"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="22"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="23"/>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="24"/>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31">
+        <v>9</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>0.09</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q41" si="25">1-Q3</f>
+        <v>0.91</v>
+      </c>
+      <c r="R31">
+        <f>P31*LN(P31/Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f>P31 * LN(P31/(Q3*0.74))</f>
+        <v>2.7099458350552958E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="21"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>-9.4824464092043755E-3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="22"/>
+        <v>1.7617011941348581E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="23"/>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="24"/>
+        <v>6.1086430205489345E-2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32:R41" si="26">P32*LN(P32/Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ref="S32:S41" si="27">P32 * LN(P32/(Q4*0.74))</f>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="21"/>
+        <v>0.09</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>-2.4967246075711262E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="22"/>
+        <v>-3.889889580836746E-3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>-9.4824464092043755E-3</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="23"/>
+        <v>1.7617011941348581E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="24"/>
+        <v>3.2508297339144836E-2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="21"/>
+        <v>0.08</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
+        <v>-3.6651629274966208E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="22"/>
+        <v>-2.4607425563609335E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>-1.7851484105136789E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="23"/>
+        <v>6.2369233175769536E-3</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="24"/>
+        <v>5.0040242353818799E-2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="21"/>
+        <v>0.08</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="22"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>-1.7851484105136789E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="23"/>
+        <v>6.2369233175769536E-3</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="24"/>
+        <v>5.0040242353818799E-2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="D38">
+        <f>(74-(D26*100))/100</f>
+        <v>0.67</v>
+      </c>
+      <c r="F38">
+        <f>C38 * LN(C38/0.9)</f>
+        <v>-0.17592009979663434</v>
+      </c>
+      <c r="G38">
+        <f>C38 * LN(C38/(0.74*0.9))</f>
+        <v>3.4853465152110769E-2</v>
+      </c>
+      <c r="H38">
+        <f>D38 * LN(D38/0.9)</f>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="I38">
+        <f>D38 * LN(D38/(0.74*0.9))</f>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="K38">
+        <f>(I2+I14+I26+I38)</f>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D47" si="28">(74-(D27*100))/100</f>
+        <v>0.67</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F47" si="29">C39 * LN(C39/0.9)</f>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G47" si="30">C39 * LN(C39/(0.74*0.9))</f>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H47" si="31">D39 * LN(D39/0.9)</f>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I47" si="32">D39 * LN(D39/(0.74*0.9))</f>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:K47" si="33">(I3+I15+I27+I39)</f>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39">
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392178E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="28"/>
+        <v>0.68</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="29"/>
+        <v>-0.21152456028250821</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="30"/>
+        <v>-1.5806249972959131E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="31"/>
+        <v>-0.19060533630482773</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="32"/>
+        <v>1.4146126788239063E-2</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="33"/>
+        <v>5.2216263918383118E-3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="25"/>
+        <v>0.96</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="27"/>
+        <v>1.2044203711356866E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="28"/>
+        <v>0.66</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="29"/>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="30"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="31"/>
+        <v>-0.20470225268053405</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="32"/>
+        <v>-5.9728914431458327E-3</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="33"/>
+        <v>1.0930205013108471E-3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="25"/>
+        <v>0.99</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="27"/>
+        <v>3.0110509278392164E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>70</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="28"/>
+        <v>0.67</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="29"/>
+        <v>-0.17592009979663434</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="30"/>
+        <v>3.4853465152110769E-2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="31"/>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="32"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="33"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="28"/>
+        <v>0.67</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="29"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="30"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="31"/>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="32"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="33"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="O43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>65</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="28"/>
+        <v>0.67</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="29"/>
+        <v>-0.21152456028250821</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="30"/>
+        <v>-1.5806249972959131E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="31"/>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="32"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="33"/>
+        <v>4.4950828434425208E-4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>18</v>
+      </c>
+      <c r="O44">
+        <v>74</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="R44">
+        <f t="shared" ref="R44:R55" si="34">P44 * LN(P44/Q30)</f>
+        <v>-0.17702996990871725</v>
+      </c>
+      <c r="S44">
+        <f>P44 * LN(P44/(Q30*0.74))</f>
+        <v>4.5787798751384716E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="28"/>
+        <v>0.65</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="29"/>
+        <v>-0.19772842412933031</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="30"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="31"/>
+        <v>-0.21152456028250821</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="32"/>
+        <v>-1.5806249972959131E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="33"/>
+        <v>8.7905981442513298E-3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>19</v>
+      </c>
+      <c r="O45">
+        <f>74-9</f>
+        <v>65</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="34"/>
+        <v>-0.21870695380378838</v>
+      </c>
+      <c r="S45">
+        <f t="shared" ref="S45:S55" si="35">P45 * LN(P45/(Q31*0.74))</f>
+        <v>-2.2988643494239312E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="28"/>
+        <v>0.66</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="29"/>
+        <v>-0.17592009979663434</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="30"/>
+        <v>3.4853465152110769E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="31"/>
+        <v>-0.20470225268053405</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="32"/>
+        <v>-5.9728914431458327E-3</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="33"/>
+        <v>1.0930205013108471E-3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46">
+        <v>64</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="34"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="28"/>
+        <v>0.66</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="29"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="30"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="31"/>
+        <v>-0.20470225268053405</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="32"/>
+        <v>-5.9728914431458327E-3</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="33"/>
+        <v>1.0930205013108471E-3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47">
+        <v>64</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="34"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48">
+        <v>74</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="34"/>
+        <v>-0.14485098707331057</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="35"/>
+        <v>7.7966781586791351E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49">
+        <v>64</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="34"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50">
+        <v>64</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="34"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51">
+        <v>64</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="34"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52">
+        <v>74</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="34"/>
+        <v>-0.14485098707331057</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="35"/>
+        <v>7.7966781586791351E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53">
+        <v>64</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="34"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="35"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N54" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54">
+        <v>70</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="34"/>
+        <v>-0.2210970645929341</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="35"/>
+        <v>-1.0323499644188877E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55">
+        <v>73</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="5"/>
+        <v>0.73</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="34"/>
+        <v>-0.22240209855992515</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="35"/>
+        <v>-2.5953808276623518E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B11"/>
   <sheetViews>

--- a/src/test/java/machinelearning/spark/conditionalEntropyCalculation_testSet1.xlsx
+++ b/src/test/java/machinelearning/spark/conditionalEntropyCalculation_testSet1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="56">
   <si>
     <t>P(T contain {h1, h5, h9} &amp; from_ui)</t>
   </si>
@@ -168,6 +168,33 @@
   <si>
     <t>MI(contain {h1, h5, h9 }| to_ui=T)</t>
   </si>
+  <si>
+    <t>Hashtag</t>
+  </si>
+  <si>
+    <t>FromUser</t>
+  </si>
+  <si>
+    <t>ToUser</t>
+  </si>
+  <si>
+    <t>#lines</t>
+  </si>
+  <si>
+    <t>Disaster_CE</t>
+  </si>
+  <si>
+    <t>Disaster_Prob</t>
+  </si>
+  <si>
+    <t>Politics_CE</t>
+  </si>
+  <si>
+    <t>Politics_Prob</t>
+  </si>
+  <si>
+    <t>WITHOUT TWEET WITH NO HASHTAG</t>
+  </si>
 </sst>
 </file>
 
@@ -233,9 +260,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -517,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S3:S13" si="11">P6 * LN(P6/(Q6*0.26))</f>
+        <f t="shared" ref="S6:S10" si="11">P6 * LN(P6/(Q6*0.26))</f>
         <v>0.13470736479666093</v>
       </c>
       <c r="U6">
@@ -3221,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3623,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S16" si="11">P6 * LN(P6/(Q6*0.26))</f>
+        <f t="shared" ref="S6:S10" si="11">P6 * LN(P6/(Q6*0.26))</f>
         <v>0.13470736479666093</v>
       </c>
       <c r="U6">
@@ -5922,97 +5950,574 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B11"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>0.51338720842685537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
+        <v>11183410</v>
+      </c>
+      <c r="C2">
+        <v>95547199</v>
+      </c>
+      <c r="D2">
+        <v>49609385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>0.54103843006146324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
+        <f>_xlfn.FLOOR.MATH(B2/2)-5</f>
+        <v>5591700</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.FLOOR.MATH(C2/2)-5</f>
+        <v>47773594</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.FLOOR.MATH(D2/2)-5</f>
+        <v>24804687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>0.54103843006146324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
+        <f>_xlfn.FLOOR.MATH(B2/2)+4</f>
+        <v>5591709</v>
+      </c>
+      <c r="C4">
+        <f>_xlfn.FLOOR.MATH(C2/2)+4</f>
+        <v>47773603</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.FLOOR.MATH(D2/2)+4</f>
+        <v>24804696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>0.54103843006146324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.54403674585281481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.54403674585281481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <f>B2-9</f>
+        <v>11183401</v>
+      </c>
+      <c r="C5">
+        <f>C2-9</f>
+        <v>95547190</v>
+      </c>
+      <c r="D5">
+        <f>D2-9</f>
+        <v>49609376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0.56426631898716906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>0.56426631898716906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+        <v>7523</v>
+      </c>
+      <c r="C9">
+        <v>46705</v>
+      </c>
+      <c r="D9">
+        <v>16529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>0.57260740884707617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
+        <f>_xlfn.FLOOR.MATH(B9/2)-5</f>
+        <v>3756</v>
+      </c>
+      <c r="C10">
+        <f>_xlfn.FLOOR.MATH(C9/2)-5</f>
+        <v>23347</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.FLOOR.MATH(D9/2)-5</f>
+        <v>8259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>0.57260740884707617</v>
+        <f>_xlfn.FLOOR.MATH(B9/2)+4</f>
+        <v>3765</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.FLOOR.MATH(C9/2)+4</f>
+        <v>23356</v>
+      </c>
+      <c r="D11">
+        <f>_xlfn.FLOOR.MATH(D9/2)+4</f>
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f>B9-9</f>
+        <v>7514</v>
+      </c>
+      <c r="C12">
+        <f>C9-9</f>
+        <v>46696</v>
+      </c>
+      <c r="D12">
+        <f>D9-9</f>
+        <v>16520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>8713</v>
+      </c>
+      <c r="C15">
+        <v>50701</v>
+      </c>
+      <c r="D15">
+        <v>17841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f>_xlfn.FLOOR.MATH(B15/2)-5</f>
+        <v>4351</v>
+      </c>
+      <c r="C16">
+        <f>_xlfn.FLOOR.MATH(C15/2)-5</f>
+        <v>25345</v>
+      </c>
+      <c r="D16">
+        <f>_xlfn.FLOOR.MATH(D15/2)-5</f>
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>_xlfn.FLOOR.MATH(B15/2)+4</f>
+        <v>4360</v>
+      </c>
+      <c r="C17">
+        <f>_xlfn.FLOOR.MATH(C15/2)+4</f>
+        <v>25354</v>
+      </c>
+      <c r="D17">
+        <f>_xlfn.FLOOR.MATH(D15/2)+4</f>
+        <v>8924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f>B15-9</f>
+        <v>8704</v>
+      </c>
+      <c r="C18">
+        <f>C15-9</f>
+        <v>50692</v>
+      </c>
+      <c r="D18">
+        <f>D15-9</f>
+        <v>17832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>18558</v>
+      </c>
+      <c r="C21">
+        <v>143819</v>
+      </c>
+      <c r="D21">
+        <v>47706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f>_xlfn.FLOOR.MATH(B21/2)-5</f>
+        <v>9274</v>
+      </c>
+      <c r="C22">
+        <f>_xlfn.FLOOR.MATH(C21/2)-5</f>
+        <v>71904</v>
+      </c>
+      <c r="D22">
+        <f>_xlfn.FLOOR.MATH(D21/2)-5</f>
+        <v>23848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>_xlfn.FLOOR.MATH(B21/2)+4</f>
+        <v>9283</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.FLOOR.MATH(C21/2)+4</f>
+        <v>71913</v>
+      </c>
+      <c r="D23">
+        <f>_xlfn.FLOOR.MATH(D21/2)+4</f>
+        <v>23857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f>B21-9</f>
+        <v>18549</v>
+      </c>
+      <c r="C24">
+        <f>C21-9</f>
+        <v>143810</v>
+      </c>
+      <c r="D24">
+        <f>D21-9</f>
+        <v>47697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>22648</v>
+      </c>
+      <c r="C27">
+        <v>157033</v>
+      </c>
+      <c r="D27">
+        <v>51453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f>_xlfn.FLOOR.MATH(B27/2)-5</f>
+        <v>11319</v>
+      </c>
+      <c r="C28">
+        <f>_xlfn.FLOOR.MATH(C27/2)-5</f>
+        <v>78511</v>
+      </c>
+      <c r="D28">
+        <f>_xlfn.FLOOR.MATH(D27/2)-5</f>
+        <v>25721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f>_xlfn.FLOOR.MATH(B27/2)+4</f>
+        <v>11328</v>
+      </c>
+      <c r="C29">
+        <f>_xlfn.FLOOR.MATH(C27/2)+4</f>
+        <v>78520</v>
+      </c>
+      <c r="D29">
+        <f>_xlfn.FLOOR.MATH(D27/2)+4</f>
+        <v>25730</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>B27-9</f>
+        <v>22639</v>
+      </c>
+      <c r="C30">
+        <f>C27-9</f>
+        <v>157024</v>
+      </c>
+      <c r="D30">
+        <f>D27-9</f>
+        <v>51444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>7523</v>
+      </c>
+      <c r="C34">
+        <v>26609220</v>
+      </c>
+      <c r="D34">
+        <v>10231105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <f>_xlfn.FLOOR.MATH(B34/2)-5</f>
+        <v>3756</v>
+      </c>
+      <c r="C35">
+        <f>_xlfn.FLOOR.MATH(C34/2)-5</f>
+        <v>13304605</v>
+      </c>
+      <c r="D35">
+        <f>_xlfn.FLOOR.MATH(D34/2)-5</f>
+        <v>5115547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <f>_xlfn.FLOOR.MATH(B34/2)+4</f>
+        <v>3765</v>
+      </c>
+      <c r="C36">
+        <f>_xlfn.FLOOR.MATH(C34/2)+4</f>
+        <v>13304614</v>
+      </c>
+      <c r="D36">
+        <f>_xlfn.FLOOR.MATH(D34/2)+4</f>
+        <v>5115556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <f>B34-9</f>
+        <v>7514</v>
+      </c>
+      <c r="C37">
+        <f>C34-9</f>
+        <v>26609211</v>
+      </c>
+      <c r="D37">
+        <f>D34-9</f>
+        <v>10231096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>8713</v>
+      </c>
+      <c r="C40">
+        <v>50701</v>
+      </c>
+      <c r="D40">
+        <v>17841</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <f>_xlfn.FLOOR.MATH(B40/2)-5</f>
+        <v>4351</v>
+      </c>
+      <c r="C41">
+        <f>_xlfn.FLOOR.MATH(C40/2)-5</f>
+        <v>25345</v>
+      </c>
+      <c r="D41">
+        <f>_xlfn.FLOOR.MATH(D40/2)-5</f>
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <f>_xlfn.FLOOR.MATH(B40/2)+4</f>
+        <v>4360</v>
+      </c>
+      <c r="C42">
+        <f>_xlfn.FLOOR.MATH(C40/2)+4</f>
+        <v>25354</v>
+      </c>
+      <c r="D42">
+        <f>_xlfn.FLOOR.MATH(D40/2)+4</f>
+        <v>8924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <f>B40-9</f>
+        <v>8704</v>
+      </c>
+      <c r="C43">
+        <f>C40-9</f>
+        <v>50692</v>
+      </c>
+      <c r="D43">
+        <f>D40-9</f>
+        <v>17832</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>18558</v>
+      </c>
+      <c r="C46">
+        <v>26613129</v>
+      </c>
+      <c r="D46">
+        <v>10232055</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f>_xlfn.FLOOR.MATH(B46/2)-5</f>
+        <v>9274</v>
+      </c>
+      <c r="C47">
+        <f>_xlfn.FLOOR.MATH(C46/2)-5</f>
+        <v>13306559</v>
+      </c>
+      <c r="D47">
+        <f>_xlfn.FLOOR.MATH(D46/2)-5</f>
+        <v>5116022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <f>_xlfn.FLOOR.MATH(B46/2)+4</f>
+        <v>9283</v>
+      </c>
+      <c r="C48">
+        <f>_xlfn.FLOOR.MATH(C46/2)+4</f>
+        <v>13306568</v>
+      </c>
+      <c r="D48">
+        <f>_xlfn.FLOOR.MATH(D46/2)+4</f>
+        <v>5116031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <f>B46-9</f>
+        <v>18549</v>
+      </c>
+      <c r="C49">
+        <f>C46-9</f>
+        <v>26613120</v>
+      </c>
+      <c r="D49">
+        <f>D46-9</f>
+        <v>10232046</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>22648</v>
+      </c>
+      <c r="C52">
+        <v>157033</v>
+      </c>
+      <c r="D52">
+        <v>51453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <f>_xlfn.FLOOR.MATH(B52/2)-5</f>
+        <v>11319</v>
+      </c>
+      <c r="C53">
+        <f>_xlfn.FLOOR.MATH(C52/2)-5</f>
+        <v>78511</v>
+      </c>
+      <c r="D53">
+        <f>_xlfn.FLOOR.MATH(D52/2)-5</f>
+        <v>25721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <f>_xlfn.FLOOR.MATH(B52/2)+4</f>
+        <v>11328</v>
+      </c>
+      <c r="C54">
+        <f>_xlfn.FLOOR.MATH(C52/2)+4</f>
+        <v>78520</v>
+      </c>
+      <c r="D54">
+        <f>_xlfn.FLOOR.MATH(D52/2)+4</f>
+        <v>25730</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <f>B52-9</f>
+        <v>22639</v>
+      </c>
+      <c r="C55">
+        <f>C52-9</f>
+        <v>157024</v>
+      </c>
+      <c r="D55">
+        <f>D52-9</f>
+        <v>51444</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B11">
-    <sortCondition ref="B2"/>
+  <sortState ref="B2:C11">
+    <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/machinelearning/spark/conditionalEntropyCalculation_testSet1.xlsx
+++ b/src/test/java/machinelearning/spark/conditionalEntropyCalculation_testSet1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="59">
   <si>
     <t>P(T contain {h1, h5, h9} &amp; from_ui)</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>WITHOUT TWEET WITH NO HASHTAG</t>
+  </si>
+  <si>
+    <t>(P(Prob_to_ui))*log(P/(Prob_to_ui))</t>
+  </si>
+  <si>
+    <t>CE_M(contain {h1, h5, h9 }| to_ui=T)</t>
+  </si>
+  <si>
+    <t>CE_M(contain {h1, h5, h9 }| from_ui=T)</t>
   </si>
 </sst>
 </file>
@@ -543,27 +552,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
-    <col min="15" max="15" width="21.1640625" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" customWidth="1"/>
-    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="21.1640625" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" customWidth="1"/>
+    <col min="24" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,38 +590,41 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -633,57 +647,69 @@
         <v>-3.0649537425959442E-2</v>
       </c>
       <c r="G2">
+        <f>(C2/0.1) * LOG(C2/0.1, 2)</f>
+        <v>-0.44217935649972373</v>
+      </c>
+      <c r="H2">
         <f>C2 * LN(C2/(0.26*0.1))</f>
         <v>5.0174881452037107E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>D2 * LN(D2/0.1)</f>
         <v>-3.6119184129778083E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
+        <f>(D2/0.1) * LOG(D2/0.1, 2)</f>
+        <v>-0.52108967824986185</v>
+      </c>
+      <c r="K2">
         <f>D2 * LN(D2/(0.1*0.26))</f>
         <v>4.293025309220197E-3</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <f>-(F2+F14+F26+F38)</f>
         <v>0.54403674585281481</v>
       </c>
-      <c r="L2">
-        <f>G2+G14+G26+G38</f>
+      <c r="N2">
+        <f>H2+H14+H26+H38</f>
         <v>2.902017127860558E-2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>6</v>
       </c>
-      <c r="P2">
-        <f>O2/100</f>
+      <c r="R2">
+        <f>Q2/100</f>
         <v>0.06</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <f>6/100</f>
         <v>0.06</v>
       </c>
-      <c r="R2">
-        <f>P2 * LN(P2/Q2)</f>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f>P2 * LN(P2/(Q2*0.26))</f>
+      <c r="T2">
+        <f>R2 * LN(R2/S2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>(R2/S2) * LOG(R2/S2, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>R2 * LN(R2/(S2*0.26))</f>
         <v>8.0824418877996559E-2</v>
       </c>
-      <c r="U2">
-        <f>-(R2+R16+R30+R44)</f>
+      <c r="X2">
+        <f>-(T2+T16+T30+T44)</f>
         <v>0.48654247165191977</v>
       </c>
-      <c r="V2">
-        <f>(S2+S16+S30+S44)</f>
+      <c r="Y2">
+        <f>(V2+V16+V30+V44)</f>
         <v>8.6514445479500546E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -707,50 +733,60 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H35" si="1">D3 * LN(D3/0.1)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I35" si="1">D3 * LN(D3/0.1)</f>
         <v>-3.6119184129778083E-2</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I11" si="2">D3 * LN(D3/(0.1*0.26))</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="2">(D3/0.1) * LOG(D3/0.1, 2)</f>
+        <v>-0.52108967824986185</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="3">D3 * LN(D3/(0.1*0.26))</f>
         <v>4.293025309220197E-3</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K11" si="3">-(F3+F15+F27+F39)</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="4">-(F3+F15+F27+F39)</f>
         <v>0.54103843006146324</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L11" si="4">G3+G15+G27+G39</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N11" si="5">H3+H15+H27+H39</f>
         <v>3.2018487069957191E-2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>19</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P55" si="5">O3/100</f>
-        <v>0</v>
-      </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R55" si="6">Q3/100</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>0.09</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U13" si="6">-(R3+R17+R31+R45)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X13" si="7">-(T3+T17+T31+T45)</f>
         <v>0.54442532561258405</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V13" si="7">(S3+S17+S31+S45)</f>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y13" si="8">(V3+V17+V31+V45)</f>
         <v>2.8631591518836416E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -768,58 +804,69 @@
         <v>0.1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F35" si="8">C4 * LN(C4/0.1)</f>
+        <f t="shared" ref="F4:F35" si="9">C4 * LN(C4/0.1)</f>
         <v>-2.3025850929940458E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G10" si="9">C4 * LN(C4/(0.26*0.1))</f>
+        <f t="shared" ref="G4:G10" si="10">(C4/0.1) * LOG(C4/0.1, 2)</f>
+        <v>-0.33219280948873625</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="11">C4 * LN(C4/(0.26*0.1))</f>
         <v>-9.5551144502743646E-3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>-3.6651629274966208E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="2"/>
-        <v>1.7231316643698168E-2</v>
+        <v>-0.52877123795494496</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
+        <v>1.7231316643698168E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
         <v>0.56426631898716906</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="4"/>
+      <c r="N4">
+        <f t="shared" si="5"/>
         <v>8.7905981442513298E-3</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>20</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>0.1</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
+      <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="7"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="7"/>
+      <c r="Y4">
+        <f t="shared" si="8"/>
         <v>3.2018487069957191E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -837,58 +884,69 @@
         <v>0.1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.6119184129778083E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>-0.52108967824986185</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="11"/>
         <v>4.293025309220197E-3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>-3.218875824868201E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="2"/>
-        <v>-5.2472852893498227E-3</v>
+        <v>-0.46438561897747249</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
+        <v>-5.2472852893498227E-3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
         <v>0.57260740884707617</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="4"/>
+      <c r="N5">
+        <f t="shared" si="5"/>
         <v>4.4950828434425208E-4</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>21</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>0.1</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="7"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="V5">
-        <f t="shared" si="7"/>
+      <c r="Y5">
+        <f t="shared" si="8"/>
         <v>3.2018487069957191E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -906,60 +964,71 @@
         <v>0.1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.0649537425959442E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>-0.44217935649972373</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="11"/>
         <v>5.0174881452037107E-2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>-3.6119184129778083E-2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="2"/>
-        <v>4.293025309220197E-3</v>
+        <v>-0.52108967824986185</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
         <v>0.54403674585281481</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="4"/>
+      <c r="N6">
+        <f t="shared" si="5"/>
         <v>2.902017127860558E-2</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>10</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="5"/>
+      <c r="R6">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.1</v>
       </c>
-      <c r="R6">
-        <f t="shared" ref="R6:R10" si="10">P6*LN(P6/Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" ref="S6:S10" si="11">P6 * LN(P6/(Q6*0.26))</f>
+      <c r="T6">
+        <f t="shared" ref="T6:T10" si="12">R6*LN(R6/S6)</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V10" si="13">R6 * LN(R6/(S6*0.26))</f>
         <v>0.13470736479666093</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="6"/>
+      <c r="X6">
+        <f t="shared" si="7"/>
         <v>0.42120633876778801</v>
       </c>
-      <c r="V6">
-        <f>(S6+S20+S34+S48)</f>
+      <c r="Y6">
+        <f>(V6+V20+V34+V48)</f>
         <v>0.15185057836363236</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -983,50 +1052,60 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>-3.6119184129778083E-2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="2"/>
-        <v>4.293025309220197E-3</v>
+        <v>-0.52108967824986185</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="4"/>
+      <c r="N7">
+        <f t="shared" si="5"/>
         <v>3.2018487069957191E-2</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>23</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>0.1</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="7"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="7"/>
+      <c r="Y7">
+        <f t="shared" si="8"/>
         <v>3.2018487069957191E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1044,58 +1123,69 @@
         <v>0.1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.3025850929940458E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>-0.33219280948873625</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="11"/>
         <v>-9.5551144502743646E-3</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>-3.6119184129778083E-2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="2"/>
-        <v>4.293025309220197E-3</v>
+        <v>-0.52108967824986185</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
+        <v>4.293025309220197E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
         <v>0.56426631898716906</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="4"/>
+      <c r="N8">
+        <f t="shared" si="5"/>
         <v>8.7905981442513298E-3</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>24</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>0.1</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="7"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="V8">
-        <f t="shared" si="7"/>
+      <c r="Y8">
+        <f t="shared" si="8"/>
         <v>3.2018487069957191E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1113,58 +1203,69 @@
         <v>0.1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.6119184129778083E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>-0.52108967824986185</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="11"/>
         <v>4.293025309220197E-3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>-2.3025850929940458E-2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="2"/>
-        <v>-9.5551144502743646E-3</v>
+        <v>-0.33219280948873625</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
+        <v>-9.5551144502743646E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
         <v>0.57260740884707617</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
+      <c r="N9">
+        <f t="shared" si="5"/>
         <v>4.4950828434425208E-4</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>25</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>0.1</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
+      <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="7"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="V9">
-        <f t="shared" si="7"/>
+      <c r="Y9">
+        <f t="shared" si="8"/>
         <v>3.2018487069957191E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1182,60 +1283,72 @@
         <v>0.1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.0649537425959442E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>-0.44217935649972373</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="11"/>
         <v>5.0174881452037107E-2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>-3.218875824868201E-2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="2"/>
-        <v>-5.2472852893498227E-3</v>
+        <v>-0.46438561897747249</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
+        <v>-5.2472852893498227E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
         <v>0.54403674585281481</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="4"/>
+      <c r="N10">
+        <f t="shared" si="5"/>
         <v>2.902017127860558E-2</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>26</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>10</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="5"/>
+      <c r="R10">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.1</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="11"/>
+      <c r="T10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U3:U13" si="14">(R10/S10) * LOG(R10/S10, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="13"/>
         <v>0.13470736479666093</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="6"/>
+      <c r="X10">
+        <f t="shared" si="7"/>
         <v>0.42120633876778801</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="7"/>
+      <c r="Y10">
+        <f t="shared" si="8"/>
         <v>0.15185057836363236</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1259,117 +1372,133 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>-3.218875824868201E-2</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>-5.2472852893498227E-3</v>
+      <c r="J11">
+        <f>(D11/0.1) * LOG(D11/0.1, 2)</f>
+        <v>-0.46438561897747249</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
+        <v>-5.2472852893498227E-3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
+      <c r="N11">
+        <f t="shared" si="5"/>
         <v>3.2018487069957191E-2</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>27</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>0.1</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="7"/>
         <v>0.54103843006146324</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="7"/>
+      <c r="Y11">
+        <f t="shared" si="8"/>
         <v>3.2018487069957191E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>28</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>0.04</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
+      <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="7"/>
         <v>0.56072249448898615</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="7"/>
+      <c r="Y12">
+        <f t="shared" si="8"/>
         <v>1.2334422642434341E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>36</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>29</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>0.01</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
+      <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="7"/>
         <v>0.57002815970933329</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="7"/>
+      <c r="Y13">
+        <f t="shared" si="8"/>
         <v>3.0287574220872562E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1388,24 +1517,24 @@
         <f>C14 * LN(C14/0.9)</f>
         <v>-0.30081547935525482</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f>C14* LN(C14/(0.26*0.9))</f>
         <v>-3.140074976193296E-2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f>D14 * LN(D14/0.9)</f>
         <v>-0.31379255451225652</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <f>D14 * LN(D14/(0.9*0.26))</f>
         <v>-3.9656154799364036E-3</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <f>-(F2+F26)</f>
         <v>6.7301166700925646E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1417,37 +1546,37 @@
         <v>0.26</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D23" si="12">(26-(D3*100))/100</f>
+        <f t="shared" ref="D15:D23" si="15">(26-(D3*100))/100</f>
         <v>0.23</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F23" si="13">C15 * LN(C15/0.9)</f>
+        <f t="shared" ref="F15:F23" si="16">C15 * LN(C15/0.9)</f>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="G15">
-        <f t="shared" ref="G15:G23" si="14">C15* LN(C15/(0.26*0.9))</f>
+      <c r="H15">
+        <f t="shared" ref="H15:H23" si="17">C15* LN(C15/(0.26*0.9))</f>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H23" si="15">D15 * LN(D15/0.9)</f>
+      <c r="I15">
+        <f t="shared" ref="I15:I23" si="18">D15 * LN(D15/0.9)</f>
         <v>-0.31379255451225652</v>
       </c>
-      <c r="I15">
-        <f t="shared" ref="I15:I23" si="16">D15 * LN(D15/(0.9*0.26))</f>
+      <c r="K15">
+        <f t="shared" ref="K15:K23" si="19">D15 * LN(D15/(0.9*0.26))</f>
         <v>-3.9656154799364036E-3</v>
       </c>
-      <c r="K15">
-        <f t="shared" ref="K15:K23" si="17">-(F3+F27)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="M15">
+        <f t="shared" ref="M15:M23" si="20">-(F3+F27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
         <v>33</v>
       </c>
-      <c r="U15" t="s">
+      <c r="X15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1459,53 +1588,53 @@
         <v>0.25</v>
       </c>
       <c r="D16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.22</v>
       </c>
       <c r="F16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.32023346136551606</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="14"/>
+      <c r="H16">
+        <f t="shared" si="17"/>
         <v>1.6534950626136247E-2</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="15"/>
+      <c r="I16">
+        <f t="shared" si="18"/>
         <v>-0.30992878773382881</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="16"/>
+      <c r="K16">
+        <f t="shared" si="19"/>
         <v>-1.3572585181174778E-2</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="17"/>
+      <c r="M16">
+        <f t="shared" si="20"/>
         <v>3.2508297339144836E-2</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>18</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>20</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="5"/>
+      <c r="R16">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="R16">
-        <f>P16*LN(P16/Q30)</f>
+      <c r="T16">
+        <f>R16*LN(R16/S30)</f>
         <v>-0.30951250174320255</v>
       </c>
-      <c r="S16">
-        <f>P16*LN(P16/(Q30*0.26))</f>
+      <c r="V16">
+        <f>R16*LN(R16/(S30*0.26))</f>
         <v>-4.0097772149880723E-2</v>
       </c>
-      <c r="U16">
-        <f>-(R2+R30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X16">
+        <f>-(T2+T30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1517,53 +1646,53 @@
         <v>0.23</v>
       </c>
       <c r="D17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.24</v>
       </c>
       <c r="F17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.31379255451225652</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="14"/>
+      <c r="H17">
+        <f t="shared" si="17"/>
         <v>-3.9656154799364036E-3</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="15"/>
+      <c r="I17">
+        <f t="shared" si="18"/>
         <v>-0.31722140159575668</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="16"/>
+      <c r="K17">
+        <f t="shared" si="19"/>
         <v>6.0762739162295489E-3</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="17"/>
+      <c r="M17">
+        <f t="shared" si="20"/>
         <v>6.1086430205489345E-2</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>19</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>26</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="5"/>
+      <c r="R17">
+        <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
-      <c r="R17">
-        <f t="shared" ref="R17:R27" si="18">P17*LN(P17/Q31)</f>
+      <c r="T17">
+        <f t="shared" ref="T17:T27" si="21">R17*LN(R17/S31)</f>
         <v>-0.3257183718087957</v>
       </c>
-      <c r="S17">
-        <f t="shared" ref="S17:S27" si="19">P17*LN(P17/(Q31*0.26))</f>
+      <c r="V17">
+        <f t="shared" ref="V17:V27" si="22">R17*LN(R17/(S31*0.26))</f>
         <v>2.452077666252277E-2</v>
       </c>
-      <c r="U17">
-        <f t="shared" ref="U17:U27" si="20">-(R3+R31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X17">
+        <f t="shared" ref="X17:X27" si="23">-(T3+T31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1575,53 +1704,53 @@
         <v>0.2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.23</v>
       </c>
       <c r="F18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.30081547935525482</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="14"/>
+      <c r="H18">
+        <f t="shared" si="17"/>
         <v>-3.140074976193296E-2</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="15"/>
+      <c r="I18">
+        <f t="shared" si="18"/>
         <v>-0.31379255451225652</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="16"/>
+      <c r="K18">
+        <f t="shared" si="19"/>
         <v>-3.9656154799364036E-3</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="17"/>
+      <c r="M18">
+        <f t="shared" si="20"/>
         <v>6.7301166700925646E-2</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>20</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>26</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="5"/>
+      <c r="R18">
+        <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="18"/>
+      <c r="T18">
+        <f t="shared" si="21"/>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="19"/>
+      <c r="V18">
+        <f t="shared" si="22"/>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="U18">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1633,53 +1762,53 @@
         <v>0.26</v>
       </c>
       <c r="D19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.23</v>
       </c>
       <c r="F19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="14"/>
+      <c r="H19">
+        <f t="shared" si="17"/>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="15"/>
+      <c r="I19">
+        <f t="shared" si="18"/>
         <v>-0.31379255451225652</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="16"/>
+      <c r="K19">
+        <f t="shared" si="19"/>
         <v>-3.9656154799364036E-3</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
         <v>21</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>26</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="5"/>
+      <c r="R19">
+        <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="18"/>
+      <c r="T19">
+        <f t="shared" si="21"/>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="19"/>
+      <c r="V19">
+        <f t="shared" si="22"/>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X19">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1691,53 +1820,53 @@
         <v>0.25</v>
       </c>
       <c r="D20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.23</v>
       </c>
       <c r="F20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.32023346136551606</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="14"/>
+      <c r="H20">
+        <f t="shared" si="17"/>
         <v>1.6534950626136247E-2</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="15"/>
+      <c r="I20">
+        <f t="shared" si="18"/>
         <v>-0.31379255451225652</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="16"/>
+      <c r="K20">
+        <f t="shared" si="19"/>
         <v>-3.9656154799364036E-3</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="17"/>
+      <c r="M20">
+        <f t="shared" si="20"/>
         <v>3.2508297339144836E-2</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>22</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>16</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="5"/>
+      <c r="R20">
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="18"/>
+      <c r="T20">
+        <f t="shared" si="21"/>
         <v>-0.27635535169447745</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="19"/>
+      <c r="V20">
+        <f t="shared" si="22"/>
         <v>-6.0823568019819918E-2</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1749,53 +1878,53 @@
         <v>0.23</v>
       </c>
       <c r="D21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
       <c r="F21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.31379255451225652</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="14"/>
+      <c r="H21">
+        <f t="shared" si="17"/>
         <v>-3.9656154799364036E-3</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="15"/>
+      <c r="I21">
+        <f t="shared" si="18"/>
         <v>-0.32023346136551606</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="16"/>
+      <c r="K21">
+        <f t="shared" si="19"/>
         <v>1.6534950626136247E-2</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="17"/>
+      <c r="M21">
+        <f t="shared" si="20"/>
         <v>6.1086430205489345E-2</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>23</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>26</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="5"/>
+      <c r="R21">
+        <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="18"/>
+      <c r="T21">
+        <f t="shared" si="21"/>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="19"/>
+      <c r="V21">
+        <f t="shared" si="22"/>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X21">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1807,53 +1936,53 @@
         <v>0.2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.24</v>
       </c>
       <c r="F22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.30081547935525482</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="14"/>
+      <c r="H22">
+        <f t="shared" si="17"/>
         <v>-3.140074976193296E-2</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="15"/>
+      <c r="I22">
+        <f t="shared" si="18"/>
         <v>-0.31722140159575668</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="16"/>
+      <c r="K22">
+        <f t="shared" si="19"/>
         <v>6.0762739162295489E-3</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="17"/>
+      <c r="M22">
+        <f t="shared" si="20"/>
         <v>6.7301166700925646E-2</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>24</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>26</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="5"/>
+      <c r="R22">
+        <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
-      <c r="R22">
-        <f t="shared" si="18"/>
+      <c r="T22">
+        <f t="shared" si="21"/>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="19"/>
+      <c r="V22">
+        <f t="shared" si="22"/>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="U22">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1865,107 +1994,107 @@
         <v>0.26</v>
       </c>
       <c r="D23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.24</v>
       </c>
       <c r="F23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="14"/>
+      <c r="H23">
+        <f t="shared" si="17"/>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="15"/>
+      <c r="I23">
+        <f t="shared" si="18"/>
         <v>-0.31722140159575668</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="16"/>
+      <c r="K23">
+        <f t="shared" si="19"/>
         <v>6.0762739162295489E-3</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="M23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
         <v>25</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>26</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="5"/>
+      <c r="R23">
+        <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
-      <c r="R23">
-        <f t="shared" si="18"/>
+      <c r="T23">
+        <f t="shared" si="21"/>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="S23">
-        <f t="shared" si="19"/>
+      <c r="V23">
+        <f t="shared" si="22"/>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="U23">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="N24" t="s">
+      <c r="X23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
         <v>26</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>16</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="5"/>
+      <c r="R24">
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="18"/>
+      <c r="T24">
+        <f t="shared" si="21"/>
         <v>-0.27635535169447745</v>
       </c>
-      <c r="S24">
-        <f t="shared" si="19"/>
+      <c r="V24">
+        <f t="shared" si="22"/>
         <v>-6.0823568019819918E-2</v>
       </c>
-      <c r="U24">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X24">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>37</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>27</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>26</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="5"/>
+      <c r="R25">
+        <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
-      <c r="R25">
-        <f t="shared" si="18"/>
+      <c r="T25">
+        <f t="shared" si="21"/>
         <v>-0.32284541440028358</v>
       </c>
-      <c r="S25">
-        <f t="shared" si="19"/>
+      <c r="V25">
+        <f t="shared" si="22"/>
         <v>2.7393734071034851E-2</v>
       </c>
-      <c r="U25">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1981,49 +2110,57 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.6651629274966208E-2</v>
       </c>
       <c r="G26">
+        <f>(C26/0.1) * LOG(C26/0.1, 2)</f>
+        <v>-0.52877123795494496</v>
+      </c>
+      <c r="H26">
         <f>C26 * LN(C26/(0.74*0.1))</f>
         <v>-2.4607425563609335E-2</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>-2.4967246075711262E-2</v>
       </c>
-      <c r="I26">
+      <c r="J26">
+        <f>(D26/0.1) * LOG(D26/0.1, 2)</f>
+        <v>-0.36020122098083074</v>
+      </c>
+      <c r="K26">
         <f>D26 * LN(D26/(0.74*0.1))</f>
         <v>-3.889889580836746E-3</v>
       </c>
-      <c r="K26">
-        <f>-(H2+H26)</f>
+      <c r="M26">
+        <f>-(I2+I26)</f>
         <v>6.1086430205489345E-2</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>28</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>26</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="5"/>
+      <c r="R26">
+        <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="18"/>
+      <c r="T26">
+        <f t="shared" si="21"/>
         <v>-0.33962542989605204</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="19"/>
+      <c r="V26">
+        <f t="shared" si="22"/>
         <v>1.0613718575266353E-2</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X26">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2035,53 +2172,61 @@
         <v>0.1</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D35" si="21">(10-(D3*100))/100</f>
+        <f t="shared" ref="D27:D35" si="24">(10-(D3*100))/100</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G35" si="22">C27 * LN(C27/(0.74*0.1))</f>
+        <f t="shared" ref="G27:G35" si="25">(C27/0.1) * LOG(C27/0.1, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H35" si="26">C27 * LN(C27/(0.74*0.1))</f>
         <v>3.0110509278392178E-2</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>-2.4967246075711262E-2</v>
       </c>
-      <c r="I27">
-        <f t="shared" ref="I27:I35" si="23">D27 * LN(D27/(0.74*0.1))</f>
+      <c r="J27">
+        <f t="shared" ref="J27:J35" si="27">(D27/0.1) * LOG(D27/0.1, 2)</f>
+        <v>-0.36020122098083074</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K35" si="28">D27 * LN(D27/(0.74*0.1))</f>
         <v>-3.889889580836746E-3</v>
       </c>
-      <c r="K27">
-        <f t="shared" ref="K27:K35" si="24">-(H3+H27)</f>
+      <c r="M27">
+        <f t="shared" ref="M27:M35" si="29">-(I3+I27)</f>
         <v>6.1086430205489345E-2</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>29</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>26</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="5"/>
+      <c r="R27">
+        <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
-      <c r="R27">
-        <f t="shared" si="18"/>
+      <c r="T27">
+        <f t="shared" si="21"/>
         <v>-0.34762606114940808</v>
       </c>
-      <c r="S27">
-        <f t="shared" si="19"/>
+      <c r="V27">
+        <f t="shared" si="22"/>
         <v>2.6130873219103916E-3</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X27">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2093,31 +2238,39 @@
         <v>0.09</v>
       </c>
       <c r="D28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="F28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.4824464092043755E-3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
+        <v>-0.13680278410054511</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="26"/>
         <v>1.7617011941348581E-2</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>-3.0649537425959442E-2</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="23"/>
+      <c r="J28">
+        <f t="shared" si="27"/>
+        <v>-0.44217935649972373</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="28"/>
         <v>-1.258323185892414E-2</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="24"/>
+      <c r="M28">
+        <f t="shared" si="29"/>
         <v>6.7301166700925646E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2129,34 +2282,42 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.08</v>
       </c>
       <c r="F29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.4967246075711262E-2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
+        <v>-0.36020122098083074</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="26"/>
         <v>-3.889889580836746E-3</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>-1.7851484105136789E-2</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="23"/>
+      <c r="J29">
+        <f t="shared" si="27"/>
+        <v>-0.25754247590988999</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="28"/>
         <v>6.2369233175769536E-3</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="24"/>
+      <c r="M29">
+        <f t="shared" si="29"/>
         <v>5.0040242353818799E-2</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2168,51 +2329,59 @@
         <v>0.04</v>
       </c>
       <c r="D30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.6651629274966208E-2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
+        <v>-0.52877123795494496</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="26"/>
         <v>-2.4607425563609335E-2</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>-2.4967246075711262E-2</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="23"/>
+      <c r="J30">
+        <f t="shared" si="27"/>
+        <v>-0.36020122098083074</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="28"/>
         <v>-3.889889580836746E-3</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="24"/>
+      <c r="M30">
+        <f t="shared" si="29"/>
         <v>6.1086430205489345E-2</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>18</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q30">
-        <f>1-Q2</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f>1-S2</f>
         <v>0.94</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2224,53 +2393,61 @@
         <v>0.1</v>
       </c>
       <c r="D31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="26"/>
         <v>3.0110509278392178E-2</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>-2.4967246075711262E-2</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="23"/>
+      <c r="J31">
+        <f t="shared" si="27"/>
+        <v>-0.36020122098083074</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="28"/>
         <v>-3.889889580836746E-3</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="24"/>
+      <c r="M31">
+        <f t="shared" si="29"/>
         <v>6.1086430205489345E-2</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>19</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>9</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="5"/>
+      <c r="R31">
+        <f t="shared" si="6"/>
         <v>0.09</v>
       </c>
-      <c r="Q31">
-        <f t="shared" ref="Q31:Q41" si="25">1-Q3</f>
+      <c r="S31">
+        <f t="shared" ref="S31:S41" si="30">1-S3</f>
         <v>0.91</v>
       </c>
-      <c r="R31">
-        <f>P31*LN(P31/Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <f>P31 * LN(P31/(Q3*0.74))</f>
+      <c r="T31">
+        <f>R31*LN(R31/S3)</f>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f>R31 * LN(R31/(S3*0.74))</f>
         <v>2.7099458350552958E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2282,53 +2459,61 @@
         <v>0.09</v>
       </c>
       <c r="D32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.4824464092043755E-3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
+        <v>-0.13680278410054511</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="26"/>
         <v>1.7617011941348581E-2</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>-2.4967246075711262E-2</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="23"/>
+      <c r="J32">
+        <f t="shared" si="27"/>
+        <v>-0.36020122098083074</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="28"/>
         <v>-3.889889580836746E-3</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="24"/>
+      <c r="M32">
+        <f t="shared" si="29"/>
         <v>6.1086430205489345E-2</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>20</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>10</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="5"/>
+      <c r="R32">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="25"/>
+      <c r="S32">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
-      <c r="R32">
-        <f t="shared" ref="R32:R41" si="26">P32*LN(P32/Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" ref="S32:S41" si="27">P32 * LN(P32/(Q4*0.74))</f>
+      <c r="T32">
+        <f t="shared" ref="T32:T41" si="31">R32*LN(R32/S4)</f>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ref="V32:V41" si="32">R32 * LN(R32/(S4*0.74))</f>
         <v>3.0110509278392178E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2340,53 +2525,61 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.09</v>
       </c>
       <c r="F33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.4967246075711262E-2</v>
       </c>
       <c r="G33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
+        <v>-0.36020122098083074</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="26"/>
         <v>-3.889889580836746E-3</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>-9.4824464092043755E-3</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="23"/>
+      <c r="J33">
+        <f t="shared" si="27"/>
+        <v>-0.13680278410054511</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="28"/>
         <v>1.7617011941348581E-2</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="24"/>
+      <c r="M33">
+        <f t="shared" si="29"/>
         <v>3.2508297339144836E-2</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>21</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>10</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="5"/>
+      <c r="R33">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="25"/>
+      <c r="S33">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
-      <c r="R33">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="27"/>
+      <c r="T33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="32"/>
         <v>3.0110509278392178E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2398,51 +2591,59 @@
         <v>0.04</v>
       </c>
       <c r="D34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.08</v>
       </c>
       <c r="F34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.6651629274966208E-2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
+        <v>-0.52877123795494496</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="26"/>
         <v>-2.4607425563609335E-2</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="1"/>
         <v>-1.7851484105136789E-2</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="23"/>
+      <c r="J34">
+        <f t="shared" si="27"/>
+        <v>-0.25754247590988999</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="28"/>
         <v>6.2369233175769536E-3</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="24"/>
+      <c r="M34">
+        <f t="shared" si="29"/>
         <v>5.0040242353818799E-2</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>22</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q34">
-        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2454,110 +2655,118 @@
         <v>0.1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.08</v>
       </c>
       <c r="F35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="26"/>
         <v>3.0110509278392178E-2</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="1"/>
         <v>-1.7851484105136789E-2</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="23"/>
+      <c r="J35">
+        <f t="shared" si="27"/>
+        <v>-0.25754247590988999</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="28"/>
         <v>6.2369233175769536E-3</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="24"/>
+      <c r="M35">
+        <f t="shared" si="29"/>
         <v>5.0040242353818799E-2</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>23</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>10</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="5"/>
+      <c r="R35">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Q35">
-        <f t="shared" si="25"/>
+      <c r="S35">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
-      <c r="R35">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="27"/>
+      <c r="T35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="32"/>
         <v>3.0110509278392178E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>24</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>10</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="5"/>
+      <c r="R36">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Q36">
-        <f t="shared" si="25"/>
+      <c r="S36">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="27"/>
+      <c r="T36">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="32"/>
         <v>3.0110509278392178E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>46</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>25</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>10</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="5"/>
+      <c r="R37">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Q37">
-        <f t="shared" si="25"/>
+      <c r="S37">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
-      <c r="R37">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="27"/>
+      <c r="T37">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="32"/>
         <v>3.0110509278392178E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2576,44 +2785,44 @@
         <f>C38 * LN(C38/0.9)</f>
         <v>-0.17592009979663434</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f>C38 * LN(C38/(0.74*0.9))</f>
         <v>3.4853465152110769E-2</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f>D38 * LN(D38/0.9)</f>
         <v>-0.19772842412933031</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <f>D38 * LN(D38/(0.74*0.9))</f>
         <v>4.0119880358972047E-3</v>
       </c>
-      <c r="K38">
-        <f>(I2+I14+I26+I38)</f>
+      <c r="M38">
+        <f>(K2+K14+K26+K38)</f>
         <v>4.4950828434425208E-4</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>26</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q38">
-        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2625,53 +2834,53 @@
         <v>0.64</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D47" si="28">(74-(D27*100))/100</f>
+        <f t="shared" ref="D39:D47" si="33">(74-(D27*100))/100</f>
         <v>0.67</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F47" si="29">C39 * LN(C39/0.9)</f>
+        <f t="shared" ref="F39:F47" si="34">C39 * LN(C39/0.9)</f>
         <v>-0.21819301566117966</v>
       </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G47" si="30">C39 * LN(C39/(0.74*0.9))</f>
+      <c r="H39">
+        <f t="shared" ref="H39:H47" si="35">C39 * LN(C39/(0.74*0.9))</f>
         <v>-2.5485756279469831E-2</v>
       </c>
-      <c r="H39">
-        <f t="shared" ref="H39:H47" si="31">D39 * LN(D39/0.9)</f>
+      <c r="I39">
+        <f t="shared" ref="I39:I47" si="36">D39 * LN(D39/0.9)</f>
         <v>-0.19772842412933031</v>
       </c>
-      <c r="I39">
-        <f t="shared" ref="I39:I47" si="32">D39 * LN(D39/(0.74*0.9))</f>
+      <c r="K39">
+        <f t="shared" ref="K39:K47" si="37">D39 * LN(D39/(0.74*0.9))</f>
         <v>4.0119880358972047E-3</v>
       </c>
-      <c r="K39">
-        <f t="shared" ref="K39:K47" si="33">(I3+I15+I27+I39)</f>
+      <c r="M39">
+        <f t="shared" ref="M39:M47" si="38">(K3+K15+K27+K39)</f>
         <v>4.4950828434425208E-4</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
         <v>27</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>10</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="5"/>
+      <c r="R39">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="25"/>
+      <c r="S39">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="27"/>
+      <c r="T39">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="32"/>
         <v>3.0110509278392178E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2683,53 +2892,53 @@
         <v>0.65</v>
       </c>
       <c r="D40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.68</v>
       </c>
       <c r="F40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.21152456028250821</v>
       </c>
-      <c r="G40">
+      <c r="H40">
+        <f t="shared" si="35"/>
+        <v>-1.5806249972959131E-2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="36"/>
+        <v>-0.19060533630482773</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="37"/>
+        <v>1.4146126788239063E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="38"/>
+        <v>5.2216263918383118E-3</v>
+      </c>
+      <c r="P40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="30"/>
-        <v>-1.5806249972959131E-2</v>
-      </c>
-      <c r="H40">
+        <v>0.96</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="31"/>
-        <v>-0.19060533630482773</v>
-      </c>
-      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="V40">
         <f t="shared" si="32"/>
-        <v>1.4146126788239063E-2</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="33"/>
-        <v>5.2216263918383118E-3</v>
-      </c>
-      <c r="N40" t="s">
-        <v>28</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="25"/>
-        <v>0.96</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="27"/>
         <v>1.2044203711356866E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2741,53 +2950,53 @@
         <v>0.67</v>
       </c>
       <c r="D41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.66</v>
       </c>
       <c r="F41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.19772842412933031</v>
       </c>
-      <c r="G41">
+      <c r="H41">
+        <f t="shared" si="35"/>
+        <v>4.0119880358972047E-3</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="36"/>
+        <v>-0.20470225268053405</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="37"/>
+        <v>-5.9728914431458327E-3</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="38"/>
+        <v>1.0930205013108471E-3</v>
+      </c>
+      <c r="P41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="30"/>
-        <v>4.0119880358972047E-3</v>
-      </c>
-      <c r="H41">
+        <v>0.99</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="31"/>
-        <v>-0.20470225268053405</v>
-      </c>
-      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="V41">
         <f t="shared" si="32"/>
-        <v>-5.9728914431458327E-3</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="33"/>
-        <v>1.0930205013108471E-3</v>
-      </c>
-      <c r="N41" t="s">
-        <v>29</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="25"/>
-        <v>0.99</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="27"/>
         <v>3.0110509278392164E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2799,31 +3008,31 @@
         <v>0.7</v>
       </c>
       <c r="D42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.67</v>
       </c>
       <c r="F42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.17592009979663434</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="30"/>
+      <c r="H42">
+        <f t="shared" si="35"/>
         <v>3.4853465152110769E-2</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="31"/>
+      <c r="I42">
+        <f t="shared" si="36"/>
         <v>-0.19772842412933031</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="32"/>
+      <c r="K42">
+        <f t="shared" si="37"/>
         <v>4.0119880358972047E-3</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="33"/>
+      <c r="M42">
+        <f t="shared" si="38"/>
         <v>4.4950828434425208E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2835,34 +3044,34 @@
         <v>0.64</v>
       </c>
       <c r="D43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.67</v>
       </c>
       <c r="F43">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.21819301566117966</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="30"/>
+      <c r="H43">
+        <f t="shared" si="35"/>
         <v>-2.5485756279469831E-2</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="31"/>
+      <c r="I43">
+        <f t="shared" si="36"/>
         <v>-0.19772842412933031</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="32"/>
+      <c r="K43">
+        <f t="shared" si="37"/>
         <v>4.0119880358972047E-3</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="33"/>
+      <c r="M43">
+        <f t="shared" si="38"/>
         <v>4.4950828434425208E-4</v>
       </c>
-      <c r="O43" t="s">
+      <c r="Q43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2874,49 +3083,49 @@
         <v>0.65</v>
       </c>
       <c r="D44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.67</v>
       </c>
       <c r="F44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.21152456028250821</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="30"/>
+      <c r="H44">
+        <f t="shared" si="35"/>
         <v>-1.5806249972959131E-2</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="31"/>
+      <c r="I44">
+        <f t="shared" si="36"/>
         <v>-0.19772842412933031</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="32"/>
+      <c r="K44">
+        <f t="shared" si="37"/>
         <v>4.0119880358972047E-3</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="33"/>
+      <c r="M44">
+        <f t="shared" si="38"/>
         <v>4.4950828434425208E-4</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
         <v>18</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>74</v>
       </c>
-      <c r="P44">
-        <f t="shared" si="5"/>
+      <c r="R44">
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
-      <c r="R44">
-        <f t="shared" ref="R44:R55" si="34">P44 * LN(P44/Q30)</f>
+      <c r="T44">
+        <f t="shared" ref="T44:T55" si="39">R44 * LN(R44/S30)</f>
         <v>-0.17702996990871725</v>
       </c>
-      <c r="S44">
-        <f>P44 * LN(P44/(Q30*0.74))</f>
+      <c r="V44">
+        <f>R44 * LN(R44/(S30*0.74))</f>
         <v>4.5787798751384716E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2928,50 +3137,50 @@
         <v>0.67</v>
       </c>
       <c r="D45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.65</v>
       </c>
       <c r="F45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.19772842412933031</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="30"/>
+      <c r="H45">
+        <f t="shared" si="35"/>
         <v>4.0119880358972047E-3</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="31"/>
+      <c r="I45">
+        <f t="shared" si="36"/>
         <v>-0.21152456028250821</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="32"/>
+      <c r="K45">
+        <f t="shared" si="37"/>
         <v>-1.5806249972959131E-2</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="33"/>
+      <c r="M45">
+        <f t="shared" si="38"/>
         <v>8.7905981442513298E-3</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>19</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <f>74-9</f>
         <v>65</v>
       </c>
-      <c r="P45">
-        <f t="shared" si="5"/>
+      <c r="R45">
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
-      <c r="R45">
-        <f t="shared" si="34"/>
+      <c r="T45">
+        <f t="shared" si="39"/>
         <v>-0.21870695380378838</v>
       </c>
-      <c r="S45">
-        <f t="shared" ref="S45:S55" si="35">P45 * LN(P45/(Q31*0.74))</f>
+      <c r="V45">
+        <f t="shared" ref="V45:V55" si="40">R45 * LN(R45/(S31*0.74))</f>
         <v>-2.2988643494239312E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2983,260 +3192,391 @@
         <v>0.7</v>
       </c>
       <c r="D46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.66</v>
       </c>
       <c r="F46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.17592009979663434</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="30"/>
+      <c r="H46">
+        <f t="shared" si="35"/>
         <v>3.4853465152110769E-2</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="31"/>
+      <c r="I46">
+        <f t="shared" si="36"/>
         <v>-0.20470225268053405</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="32"/>
+      <c r="K46">
+        <f t="shared" si="37"/>
         <v>-5.9728914431458327E-3</v>
       </c>
-      <c r="K46">
+      <c r="M46">
+        <f t="shared" si="38"/>
+        <v>1.0930205013108471E-3</v>
+      </c>
+      <c r="P46" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46">
+        <v>64</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="39"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="40"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="33"/>
-        <v>1.0930205013108471E-3</v>
-      </c>
-      <c r="N46" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46">
-        <v>64</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="5"/>
-        <v>0.64</v>
-      </c>
-      <c r="R46">
+        <v>0.66</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="34"/>
         <v>-0.21819301566117966</v>
       </c>
-      <c r="S46">
+      <c r="H47">
         <f t="shared" si="35"/>
         <v>-2.5485756279469831E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="I47">
+        <f t="shared" si="36"/>
+        <v>-0.20470225268053405</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="37"/>
+        <v>-5.9728914431458327E-3</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="38"/>
+        <v>1.0930205013108471E-3</v>
+      </c>
+      <c r="P47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47">
+        <v>64</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="39"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="40"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48">
+        <v>74</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="6"/>
+        <v>0.74</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="39"/>
+        <v>-0.14485098707331057</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="40"/>
+        <v>7.7966781586791351E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="M49" t="s">
+        <v>57</v>
+      </c>
+      <c r="O49"/>
+      <c r="P49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49">
+        <v>64</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="39"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="40"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f>-(G26+G2)</f>
+        <v>0.97095059445466869</v>
+      </c>
+      <c r="M50">
+        <f>-(J2+J26)</f>
+        <v>0.88129089923069259</v>
+      </c>
+      <c r="O50"/>
+      <c r="P50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50">
+        <v>64</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="39"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="40"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <f>-(G27+G3)</f>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ref="M51:M59" si="41">-(J3+J27)</f>
+        <v>0.88129089923069259</v>
+      </c>
+      <c r="O51"/>
+      <c r="P51" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51">
+        <v>64</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="39"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="40"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <f>-(G28+G4)</f>
+        <v>0.46899559358928133</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="41"/>
+        <v>0.97095059445466869</v>
+      </c>
+      <c r="O52"/>
+      <c r="P52" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q52">
+        <v>74</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="6"/>
+        <v>0.74</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="39"/>
+        <v>-0.14485098707331057</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="40"/>
+        <v>7.7966781586791351E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <f>-(G29+G5)</f>
+        <v>0.88129089923069259</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="41"/>
+        <v>0.72192809488736254</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53">
+        <v>64</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="39"/>
+        <v>-0.21819301566117966</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="40"/>
+        <v>-2.5485756279469831E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <f>-(G30+G6)</f>
+        <v>0.97095059445466869</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="41"/>
+        <v>0.88129089923069259</v>
+      </c>
+      <c r="O54"/>
+      <c r="P54" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q54">
+        <v>70</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="39"/>
+        <v>-0.2210970645929341</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="40"/>
+        <v>-1.0323499644188877E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <f>-(G31+G7)</f>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="41"/>
+        <v>0.88129089923069259</v>
+      </c>
+      <c r="O55"/>
+      <c r="P55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55">
+        <v>73</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="6"/>
+        <v>0.73</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="39"/>
+        <v>-0.22240209855992515</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="40"/>
+        <v>-2.5953808276623518E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <f>-(G32+G8)</f>
+        <v>0.46899559358928133</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="41"/>
+        <v>0.88129089923069259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <f>-(G33+G9)</f>
+        <v>0.88129089923069259</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="41"/>
+        <v>0.46899559358928133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <f>-(G34+G10)</f>
+        <v>0.97095059445466869</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="41"/>
+        <v>0.72192809488736254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="B47">
-        <v>64</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="28"/>
-        <v>0.66</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="29"/>
-        <v>-0.21819301566117966</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="30"/>
-        <v>-2.5485756279469831E-2</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="31"/>
-        <v>-0.20470225268053405</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="32"/>
-        <v>-5.9728914431458327E-3</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="33"/>
-        <v>1.0930205013108471E-3</v>
-      </c>
-      <c r="N47" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47">
-        <v>64</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="5"/>
-        <v>0.64</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="34"/>
-        <v>-0.21819301566117966</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="35"/>
-        <v>-2.5485756279469831E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O48">
-        <v>74</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="5"/>
-        <v>0.74</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="34"/>
-        <v>-0.14485098707331057</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="35"/>
-        <v>7.7966781586791351E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N49" t="s">
-        <v>23</v>
-      </c>
-      <c r="O49">
-        <v>64</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="5"/>
-        <v>0.64</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="34"/>
-        <v>-0.21819301566117966</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="35"/>
-        <v>-2.5485756279469831E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N50" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50">
-        <v>64</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="5"/>
-        <v>0.64</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="34"/>
-        <v>-0.21819301566117966</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="35"/>
-        <v>-2.5485756279469831E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N51" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51">
-        <v>64</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="5"/>
-        <v>0.64</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="34"/>
-        <v>-0.21819301566117966</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="35"/>
-        <v>-2.5485756279469831E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N52" t="s">
-        <v>26</v>
-      </c>
-      <c r="O52">
-        <v>74</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="5"/>
-        <v>0.74</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="34"/>
-        <v>-0.14485098707331057</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="35"/>
-        <v>7.7966781586791351E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N53" t="s">
-        <v>27</v>
-      </c>
-      <c r="O53">
-        <v>64</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="5"/>
-        <v>0.64</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="34"/>
-        <v>-0.21819301566117966</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="35"/>
-        <v>-2.5485756279469831E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N54" t="s">
-        <v>28</v>
-      </c>
-      <c r="O54">
-        <v>70</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="34"/>
-        <v>-0.2210970645929341</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="35"/>
-        <v>-1.0323499644188877E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="14:19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N55" t="s">
-        <v>29</v>
-      </c>
-      <c r="O55">
-        <v>73</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="5"/>
-        <v>0.73</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="34"/>
-        <v>-0.22240209855992515</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="35"/>
-        <v>-2.5953808276623518E-3</v>
+      <c r="G59">
+        <f>-(G35+G11)</f>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="41"/>
+        <v>0.72192809488736254</v>
       </c>
     </row>
   </sheetData>
